--- a/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
@@ -453,1598 +453,1598 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>0.8223292231559753</v>
+        <v>0.8073163628578186</v>
       </c>
       <c r="B2">
-        <v>0.8274461627006531</v>
+        <v>0.8270739912986755</v>
       </c>
       <c r="C2">
-        <v>0.8412202000617981</v>
+        <v>0.8379479646682739</v>
       </c>
       <c r="D2">
-        <v>0.8615463972091675</v>
+        <v>0.8535779714584351</v>
       </c>
       <c r="E2">
-        <v>0.8379771113395691</v>
+        <v>0.8283088207244873</v>
       </c>
       <c r="F2">
-        <v>0.7646005153656006</v>
+        <v>0.7564305067062378</v>
       </c>
       <c r="G2">
-        <v>0.8399098515510559</v>
+        <v>0.8244964480400085</v>
       </c>
       <c r="H2">
-        <v>0.8769370317459106</v>
+        <v>0.8660292625427246</v>
       </c>
       <c r="I2">
-        <v>0.8017566204071045</v>
+        <v>0.7885241508483887</v>
       </c>
       <c r="J2">
-        <v>0.8007752299308777</v>
+        <v>0.7852979898452759</v>
       </c>
       <c r="K2">
-        <v>0.8105344772338867</v>
+        <v>0.8031231164932251</v>
       </c>
       <c r="L2">
-        <v>0.8320827484130859</v>
+        <v>0.8215842247009277</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>0.02418699860572815</v>
+        <v>0.02685652114450932</v>
       </c>
       <c r="B3">
-        <v>0.02254365757107735</v>
+        <v>0.02269350737333298</v>
       </c>
       <c r="C3">
-        <v>0.02313644997775555</v>
+        <v>0.02385205775499344</v>
       </c>
       <c r="D3">
-        <v>0.01906192488968372</v>
+        <v>0.02092542685568333</v>
       </c>
       <c r="E3">
-        <v>0.02363338135182858</v>
+        <v>0.02531873434782028</v>
       </c>
       <c r="F3">
-        <v>0.04216625168919563</v>
+        <v>0.04367667064070702</v>
       </c>
       <c r="G3">
-        <v>0.03273430466651917</v>
+        <v>0.03647797554731369</v>
       </c>
       <c r="H3">
-        <v>0.02688638865947723</v>
+        <v>0.02907595224678516</v>
       </c>
       <c r="I3">
-        <v>0.0256295520812273</v>
+        <v>0.02761423215270042</v>
       </c>
       <c r="J3">
-        <v>0.03130373731255531</v>
+        <v>0.03540812805294991</v>
       </c>
       <c r="K3">
-        <v>0.02225916646420956</v>
+        <v>0.02269015274941921</v>
       </c>
       <c r="L3">
-        <v>0.01854010298848152</v>
+        <v>0.02030594274401665</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>0.01475549675524235</v>
+        <v>0.0151287941262126</v>
       </c>
       <c r="B4">
-        <v>0.01587395928800106</v>
+        <v>0.01583259552717209</v>
       </c>
       <c r="C4">
-        <v>0.01711675524711609</v>
+        <v>0.01715167798101902</v>
       </c>
       <c r="D4">
-        <v>0.01489541307091713</v>
+        <v>0.01519904565066099</v>
       </c>
       <c r="E4">
-        <v>0.01437387149780989</v>
+        <v>0.01601366885006428</v>
       </c>
       <c r="F4">
-        <v>0.02097254619002342</v>
+        <v>0.02203697711229324</v>
       </c>
       <c r="G4">
-        <v>0.01845008507370949</v>
+        <v>0.02049140818417072</v>
       </c>
       <c r="H4">
-        <v>0.01447152532637119</v>
+        <v>0.01520995143800974</v>
       </c>
       <c r="I4">
-        <v>0.01806245930492878</v>
+        <v>0.01871460117399693</v>
       </c>
       <c r="J4">
-        <v>0.01170483510941267</v>
+        <v>0.01264349371194839</v>
       </c>
       <c r="K4">
-        <v>0.01519971061497927</v>
+        <v>0.01597630605101585</v>
       </c>
       <c r="L4">
-        <v>0.01321515161544085</v>
+        <v>0.01298100594431162</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>0.01231095194816589</v>
+        <v>0.01380797848105431</v>
       </c>
       <c r="B5">
-        <v>0.01196904387325048</v>
+        <v>0.01193062122911215</v>
       </c>
       <c r="C5">
-        <v>0.01182947959750891</v>
+        <v>0.01206048205494881</v>
       </c>
       <c r="D5">
-        <v>0.01068547274917364</v>
+        <v>0.01109831593930721</v>
       </c>
       <c r="E5">
-        <v>0.01058775186538696</v>
+        <v>0.01082717347890139</v>
       </c>
       <c r="F5">
-        <v>0.0123808104544878</v>
+        <v>0.01288868207484484</v>
       </c>
       <c r="G5">
-        <v>0.01049797609448433</v>
+        <v>0.01182489655911922</v>
       </c>
       <c r="H5">
-        <v>0.008273287676274776</v>
+        <v>0.008751643821597099</v>
       </c>
       <c r="I5">
-        <v>0.01324518676847219</v>
+        <v>0.01477190852165222</v>
       </c>
       <c r="J5">
-        <v>0.0114992642775178</v>
+        <v>0.01180620118975639</v>
       </c>
       <c r="K5">
-        <v>0.01329542137682438</v>
+        <v>0.01391634717583656</v>
       </c>
       <c r="L5">
-        <v>0.01075359340757132</v>
+        <v>0.01105000637471676</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>0.01110232528299093</v>
+        <v>0.01203937362879515</v>
       </c>
       <c r="B6">
-        <v>0.01093391515314579</v>
+        <v>0.01091753132641315</v>
       </c>
       <c r="C6">
-        <v>0.008619890548288822</v>
+        <v>0.008700797334313393</v>
       </c>
       <c r="D6">
-        <v>0.009081854484975338</v>
+        <v>0.009478585794568062</v>
       </c>
       <c r="E6">
-        <v>0.008667067624628544</v>
+        <v>0.009398401714861393</v>
       </c>
       <c r="F6">
-        <v>0.01175023335963488</v>
+        <v>0.01238618232309818</v>
       </c>
       <c r="G6">
-        <v>0.009667668491601944</v>
+        <v>0.01035493426024914</v>
       </c>
       <c r="H6">
-        <v>0.008155494928359985</v>
+        <v>0.00854034535586834</v>
       </c>
       <c r="I6">
-        <v>0.01182868052273989</v>
+        <v>0.01232192851603031</v>
       </c>
       <c r="J6">
-        <v>0.009794395416975021</v>
+        <v>0.01102845463901758</v>
       </c>
       <c r="K6">
-        <v>0.01079184748232365</v>
+        <v>0.01160154026001692</v>
       </c>
       <c r="L6">
-        <v>0.009787866845726967</v>
+        <v>0.01042143441736698</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>0.00886525958776474</v>
+        <v>0.009270867332816124</v>
       </c>
       <c r="B7">
-        <v>0.007564427331089973</v>
+        <v>0.007584708742797375</v>
       </c>
       <c r="C7">
-        <v>0.00792789738625288</v>
+        <v>0.008497440256178379</v>
       </c>
       <c r="D7">
-        <v>0.006724784150719643</v>
+        <v>0.007396229077130556</v>
       </c>
       <c r="E7">
-        <v>0.007262736558914185</v>
+        <v>0.007711490150541067</v>
       </c>
       <c r="F7">
-        <v>0.009799198247492313</v>
+        <v>0.00981429684907198</v>
       </c>
       <c r="G7">
-        <v>0.007352295331656933</v>
+        <v>0.007750656921416521</v>
       </c>
       <c r="H7">
-        <v>0.007006138097494841</v>
+        <v>0.007703045383095741</v>
       </c>
       <c r="I7">
-        <v>0.01002521440386772</v>
+        <v>0.01061986200511456</v>
       </c>
       <c r="J7">
-        <v>0.008804772980511189</v>
+        <v>0.009760136716067791</v>
       </c>
       <c r="K7">
-        <v>0.009877416305243969</v>
+        <v>0.01017181202769279</v>
       </c>
       <c r="L7">
-        <v>0.009247957728803158</v>
+        <v>0.009889250621199608</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>0.007159337867051363</v>
+        <v>0.007972518913447857</v>
       </c>
       <c r="B8">
-        <v>0.006537301931530237</v>
+        <v>0.006493328139185905</v>
       </c>
       <c r="C8">
-        <v>0.006206587888300419</v>
+        <v>0.00620877742767334</v>
       </c>
       <c r="D8">
-        <v>0.005606669001281261</v>
+        <v>0.006027571856975555</v>
       </c>
       <c r="E8">
-        <v>0.007147664669901133</v>
+        <v>0.007280635181814432</v>
       </c>
       <c r="F8">
-        <v>0.009222239255905151</v>
+        <v>0.009435154497623444</v>
       </c>
       <c r="G8">
-        <v>0.006896821316331625</v>
+        <v>0.00761342141777277</v>
       </c>
       <c r="H8">
-        <v>0.006144952494651079</v>
+        <v>0.00679840799421072</v>
       </c>
       <c r="I8">
-        <v>0.00879010371863842</v>
+        <v>0.009464384987950325</v>
       </c>
       <c r="J8">
-        <v>0.008173675276339054</v>
+        <v>0.009158973582088947</v>
       </c>
       <c r="K8">
-        <v>0.007752717938274145</v>
+        <v>0.007817146368324757</v>
       </c>
       <c r="L8">
-        <v>0.008388053625822067</v>
+        <v>0.008721489459276199</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>0.005986962933093309</v>
+        <v>0.00659916689619422</v>
       </c>
       <c r="B9">
-        <v>0.006312584038823843</v>
+        <v>0.006334308069199324</v>
       </c>
       <c r="C9">
-        <v>0.005954455584287643</v>
+        <v>0.005964973475784063</v>
       </c>
       <c r="D9">
-        <v>0.004885466769337654</v>
+        <v>0.004877930507063866</v>
       </c>
       <c r="E9">
-        <v>0.006461584474891424</v>
+        <v>0.00680507579818368</v>
       </c>
       <c r="F9">
-        <v>0.008994113653898239</v>
+        <v>0.009240278042852879</v>
       </c>
       <c r="G9">
-        <v>0.006216708105057478</v>
+        <v>0.006697716191411018</v>
       </c>
       <c r="H9">
-        <v>0.005173428449779749</v>
+        <v>0.005636316724121571</v>
       </c>
       <c r="I9">
-        <v>0.007032790221273899</v>
+        <v>0.007392073515802622</v>
       </c>
       <c r="J9">
-        <v>0.007464493624866009</v>
+        <v>0.007851085625588894</v>
       </c>
       <c r="K9">
-        <v>0.00743595976382494</v>
+        <v>0.007513903081417084</v>
       </c>
       <c r="L9">
-        <v>0.006149525288492441</v>
+        <v>0.006372934672981501</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>0.005560614634305239</v>
+        <v>0.006130390334874392</v>
       </c>
       <c r="B10">
-        <v>0.005777488928288221</v>
+        <v>0.005760428495705128</v>
       </c>
       <c r="C10">
-        <v>0.004899062216281891</v>
+        <v>0.005052284337580204</v>
       </c>
       <c r="D10">
-        <v>0.004398529883474112</v>
+        <v>0.004589809570461512</v>
       </c>
       <c r="E10">
-        <v>0.005206422880291939</v>
+        <v>0.005687686614692211</v>
       </c>
       <c r="F10">
-        <v>0.007882194593548775</v>
+        <v>0.007942808791995049</v>
       </c>
       <c r="G10">
-        <v>0.005999499931931496</v>
+        <v>0.006236228160560131</v>
       </c>
       <c r="H10">
-        <v>0.004878028761595488</v>
+        <v>0.00519319623708725</v>
       </c>
       <c r="I10">
-        <v>0.006811652332544327</v>
+        <v>0.007165346294641495</v>
       </c>
       <c r="J10">
-        <v>0.006644569337368011</v>
+        <v>0.007334198337048292</v>
       </c>
       <c r="K10">
-        <v>0.006349776405841112</v>
+        <v>0.006590790115296841</v>
       </c>
       <c r="L10">
-        <v>0.005893867462873459</v>
+        <v>0.00607479689642787</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>0.005098702851682901</v>
+        <v>0.005462238099426031</v>
       </c>
       <c r="B11">
-        <v>0.005312209483236074</v>
+        <v>0.005326931830495596</v>
       </c>
       <c r="C11">
-        <v>0.00478996941819787</v>
+        <v>0.004900807049125433</v>
       </c>
       <c r="D11">
-        <v>0.00380018912255764</v>
+        <v>0.004015972372144461</v>
       </c>
       <c r="E11">
-        <v>0.004858319647610188</v>
+        <v>0.005166790448129177</v>
       </c>
       <c r="F11">
-        <v>0.00718719232827425</v>
+        <v>0.007341640070080757</v>
       </c>
       <c r="G11">
-        <v>0.004912497941404581</v>
+        <v>0.005337714217603207</v>
       </c>
       <c r="H11">
-        <v>0.004005078226327896</v>
+        <v>0.004459999036043882</v>
       </c>
       <c r="I11">
-        <v>0.006720131728798151</v>
+        <v>0.006942038889974356</v>
       </c>
       <c r="J11">
-        <v>0.00605118228122592</v>
+        <v>0.006597516126930714</v>
       </c>
       <c r="K11">
-        <v>0.006050484720617533</v>
+        <v>0.006295113824307919</v>
       </c>
       <c r="L11">
-        <v>0.005329194478690624</v>
+        <v>0.005862839054316282</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>0.004882101900875568</v>
+        <v>0.005082937888801098</v>
       </c>
       <c r="B12">
-        <v>0.004983448889106512</v>
+        <v>0.005020965822041035</v>
       </c>
       <c r="C12">
-        <v>0.004338522907346487</v>
+        <v>0.004445792641490698</v>
       </c>
       <c r="D12">
-        <v>0.003558301832526922</v>
+        <v>0.003937327768653631</v>
       </c>
       <c r="E12">
-        <v>0.004508276004344225</v>
+        <v>0.004867037292569876</v>
       </c>
       <c r="F12">
-        <v>0.006739077158272266</v>
+        <v>0.006766775622963905</v>
       </c>
       <c r="G12">
-        <v>0.004662213381379843</v>
+        <v>0.004842787515372038</v>
       </c>
       <c r="H12">
-        <v>0.003654797794297338</v>
+        <v>0.003987704869359732</v>
       </c>
       <c r="I12">
-        <v>0.005621518474072218</v>
+        <v>0.00589903537184</v>
       </c>
       <c r="J12">
-        <v>0.005773115437477827</v>
+        <v>0.006236107554286718</v>
       </c>
       <c r="K12">
-        <v>0.005795320030301809</v>
+        <v>0.006113674957305193</v>
       </c>
       <c r="L12">
-        <v>0.004943765234202147</v>
+        <v>0.00531087489798665</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>0.004502063151448965</v>
+        <v>0.004841416142880917</v>
       </c>
       <c r="B13">
-        <v>0.004548170603811741</v>
+        <v>0.004543006885796785</v>
       </c>
       <c r="C13">
-        <v>0.004088147543370724</v>
+        <v>0.004124417901039124</v>
       </c>
       <c r="D13">
-        <v>0.003449821146205068</v>
+        <v>0.003683397313579917</v>
       </c>
       <c r="E13">
-        <v>0.004158814903348684</v>
+        <v>0.004151233471930027</v>
       </c>
       <c r="F13">
-        <v>0.006399831268936396</v>
+        <v>0.006536769215017557</v>
       </c>
       <c r="G13">
-        <v>0.004437074530869722</v>
+        <v>0.004658135119825602</v>
       </c>
       <c r="H13">
-        <v>0.003173631383106112</v>
+        <v>0.003544227220118046</v>
       </c>
       <c r="I13">
-        <v>0.005295505281537771</v>
+        <v>0.005592864006757736</v>
       </c>
       <c r="J13">
-        <v>0.005588633473962545</v>
+        <v>0.005652216263115406</v>
       </c>
       <c r="K13">
-        <v>0.004853767808526754</v>
+        <v>0.005155277904123068</v>
       </c>
       <c r="L13">
-        <v>0.004514032509177923</v>
+        <v>0.005091361701488495</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>0.004193173721432686</v>
+        <v>0.004582902416586876</v>
       </c>
       <c r="B14">
-        <v>0.004214550834149122</v>
+        <v>0.004187309183180332</v>
       </c>
       <c r="C14">
-        <v>0.003675443353131413</v>
+        <v>0.003869256237521768</v>
       </c>
       <c r="D14">
-        <v>0.003039511386305094</v>
+        <v>0.003306411439552903</v>
       </c>
       <c r="E14">
-        <v>0.00387872033752501</v>
+        <v>0.004074533469974995</v>
       </c>
       <c r="F14">
-        <v>0.006277560256421566</v>
+        <v>0.006391516886651516</v>
       </c>
       <c r="G14">
-        <v>0.00407725851982832</v>
+        <v>0.004368587862700224</v>
       </c>
       <c r="H14">
-        <v>0.003086403710767627</v>
+        <v>0.003300074953585863</v>
       </c>
       <c r="I14">
-        <v>0.004660144448280334</v>
+        <v>0.004982119426131248</v>
       </c>
       <c r="J14">
-        <v>0.00530320405960083</v>
+        <v>0.005230531096458435</v>
       </c>
       <c r="K14">
-        <v>0.004570700228214264</v>
+        <v>0.004702106118202209</v>
       </c>
       <c r="L14">
-        <v>0.004264440853148699</v>
+        <v>0.004453771747648716</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>0.003999859094619751</v>
+        <v>0.004294089507311583</v>
       </c>
       <c r="B15">
-        <v>0.003946466837078333</v>
+        <v>0.003959503024816513</v>
       </c>
       <c r="C15">
-        <v>0.003571071429178119</v>
+        <v>0.003596546361222863</v>
       </c>
       <c r="D15">
-        <v>0.002889542141929269</v>
+        <v>0.003120593726634979</v>
       </c>
       <c r="E15">
-        <v>0.003665270749479532</v>
+        <v>0.003839874407276511</v>
       </c>
       <c r="F15">
-        <v>0.005559028591960669</v>
+        <v>0.005721855908632278</v>
       </c>
       <c r="G15">
-        <v>0.003725802525877953</v>
+        <v>0.004057219717651606</v>
       </c>
       <c r="H15">
-        <v>0.002623046049848199</v>
+        <v>0.003140172688290477</v>
       </c>
       <c r="I15">
-        <v>0.004491562955081463</v>
+        <v>0.004930964205414057</v>
       </c>
       <c r="J15">
-        <v>0.004814451094716787</v>
+        <v>0.004960421938449144</v>
       </c>
       <c r="K15">
-        <v>0.004514090251177549</v>
+        <v>0.004589712247252464</v>
       </c>
       <c r="L15">
-        <v>0.004019071813672781</v>
+        <v>0.004160317592322826</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>0.003923709969967604</v>
+        <v>0.004121445119380951</v>
       </c>
       <c r="B16">
-        <v>0.003833128605037928</v>
+        <v>0.00385802355594933</v>
       </c>
       <c r="C16">
-        <v>0.003400967922061682</v>
+        <v>0.003454726189374924</v>
       </c>
       <c r="D16">
-        <v>0.002839528024196625</v>
+        <v>0.002948123263195157</v>
       </c>
       <c r="E16">
-        <v>0.0034384208265692</v>
+        <v>0.003760929219424725</v>
       </c>
       <c r="F16">
-        <v>0.005311369430273771</v>
+        <v>0.005531077273190022</v>
       </c>
       <c r="G16">
-        <v>0.003462585853412747</v>
+        <v>0.004000904969871044</v>
       </c>
       <c r="H16">
-        <v>0.002564827678725123</v>
+        <v>0.002828463446348906</v>
       </c>
       <c r="I16">
-        <v>0.004311475437134504</v>
+        <v>0.004748118110001087</v>
       </c>
       <c r="J16">
-        <v>0.004506532568484545</v>
+        <v>0.004741066135466099</v>
       </c>
       <c r="K16">
-        <v>0.004428379237651825</v>
+        <v>0.004528364166617393</v>
       </c>
       <c r="L16">
-        <v>0.003785443492233753</v>
+        <v>0.004130010027438402</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>0.003683742368593812</v>
+        <v>0.004023122601211071</v>
       </c>
       <c r="B17">
-        <v>0.003530511166900396</v>
+        <v>0.003595451358705759</v>
       </c>
       <c r="C17">
-        <v>0.003033823566511273</v>
+        <v>0.003098219865933061</v>
       </c>
       <c r="D17">
-        <v>0.002643431769683957</v>
+        <v>0.002809015335515141</v>
       </c>
       <c r="E17">
-        <v>0.003315707203000784</v>
+        <v>0.003481952240690589</v>
       </c>
       <c r="F17">
-        <v>0.005108262412250042</v>
+        <v>0.005365432240068913</v>
       </c>
       <c r="G17">
-        <v>0.003319490235298872</v>
+        <v>0.003591840621083975</v>
       </c>
       <c r="H17">
-        <v>0.00216954480856657</v>
+        <v>0.002542007016018033</v>
       </c>
       <c r="I17">
-        <v>0.004225784447044134</v>
+        <v>0.004570337943732738</v>
       </c>
       <c r="J17">
-        <v>0.004248457495123148</v>
+        <v>0.00459193391725421</v>
       </c>
       <c r="K17">
-        <v>0.004292839672416449</v>
+        <v>0.004306390881538391</v>
       </c>
       <c r="L17">
-        <v>0.003727783681824803</v>
+        <v>0.004020918160676956</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>0.003541420213878155</v>
+        <v>0.003792367875576019</v>
       </c>
       <c r="B18">
-        <v>0.003471253672614694</v>
+        <v>0.003474553814157844</v>
       </c>
       <c r="C18">
-        <v>0.002911350922659039</v>
+        <v>0.002914913464337587</v>
       </c>
       <c r="D18">
-        <v>0.002417517825961113</v>
+        <v>0.002613944932818413</v>
       </c>
       <c r="E18">
-        <v>0.003216567682102323</v>
+        <v>0.003396090352907777</v>
       </c>
       <c r="F18">
-        <v>0.004504098556935787</v>
+        <v>0.0047062779776752</v>
       </c>
       <c r="G18">
-        <v>0.002983438083902001</v>
+        <v>0.003222723258659244</v>
       </c>
       <c r="H18">
-        <v>0.001986338756978512</v>
+        <v>0.00218782969750464</v>
       </c>
       <c r="I18">
-        <v>0.004166730213910341</v>
+        <v>0.004369627218693495</v>
       </c>
       <c r="J18">
-        <v>0.004083667881786823</v>
+        <v>0.004494752734899521</v>
       </c>
       <c r="K18">
-        <v>0.004037758801132441</v>
+        <v>0.004160037729889154</v>
       </c>
       <c r="L18">
-        <v>0.003466289956122637</v>
+        <v>0.003723745932802558</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>0.003406626638025045</v>
+        <v>0.003768980270251632</v>
       </c>
       <c r="B19">
-        <v>0.003190477378666401</v>
+        <v>0.003197781974449754</v>
       </c>
       <c r="C19">
-        <v>0.002753868000581861</v>
+        <v>0.002820511115714908</v>
       </c>
       <c r="D19">
-        <v>0.002317551989108324</v>
+        <v>0.002488194033503532</v>
       </c>
       <c r="E19">
-        <v>0.003186831949278712</v>
+        <v>0.00330931693315506</v>
       </c>
       <c r="F19">
-        <v>0.004385918378829956</v>
+        <v>0.004546653479337692</v>
       </c>
       <c r="G19">
-        <v>0.002593277022242546</v>
+        <v>0.003025919198989868</v>
       </c>
       <c r="H19">
-        <v>0.001880227006040514</v>
+        <v>0.002103796927258372</v>
       </c>
       <c r="I19">
-        <v>0.003985431510955095</v>
+        <v>0.004090943839401007</v>
       </c>
       <c r="J19">
-        <v>0.004007475450634956</v>
+        <v>0.004261583089828491</v>
       </c>
       <c r="K19">
-        <v>0.00358381774276495</v>
+        <v>0.003719032742083073</v>
       </c>
       <c r="L19">
-        <v>0.003282282734289765</v>
+        <v>0.003598754294216633</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>0.003276732517406344</v>
+        <v>0.00354605563916266</v>
       </c>
       <c r="B20">
-        <v>0.002938260557129979</v>
+        <v>0.002933487528935075</v>
       </c>
       <c r="C20">
-        <v>0.002612035721540451</v>
+        <v>0.002715930342674255</v>
       </c>
       <c r="D20">
-        <v>0.002280646236613393</v>
+        <v>0.002466718200594187</v>
       </c>
       <c r="E20">
-        <v>0.002833856269717216</v>
+        <v>0.003008886473253369</v>
       </c>
       <c r="F20">
-        <v>0.004213827196508646</v>
+        <v>0.004416908137500286</v>
       </c>
       <c r="G20">
-        <v>0.002525063930079341</v>
+        <v>0.002774424152448773</v>
       </c>
       <c r="H20">
-        <v>0.001674181898124516</v>
+        <v>0.001887233462184668</v>
       </c>
       <c r="I20">
-        <v>0.003731534816324711</v>
+        <v>0.003923237323760986</v>
       </c>
       <c r="J20">
-        <v>0.003724712645635009</v>
+        <v>0.004058501217514277</v>
       </c>
       <c r="K20">
-        <v>0.003429936710745096</v>
+        <v>0.003612798405811191</v>
       </c>
       <c r="L20">
-        <v>0.00314765889197588</v>
+        <v>0.003279609140008688</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>0.00311180716380477</v>
+        <v>0.003357064910233021</v>
       </c>
       <c r="B21">
-        <v>0.002903969958424568</v>
+        <v>0.0029032276943326</v>
       </c>
       <c r="C21">
-        <v>0.002480757655575871</v>
+        <v>0.002568573690950871</v>
       </c>
       <c r="D21">
-        <v>0.002210255246609449</v>
+        <v>0.00226815277710557</v>
       </c>
       <c r="E21">
-        <v>0.002673979382961988</v>
+        <v>0.002903519663959742</v>
       </c>
       <c r="F21">
-        <v>0.004013413563370705</v>
+        <v>0.004143277648836374</v>
       </c>
       <c r="G21">
-        <v>0.002426293445751071</v>
+        <v>0.00267909187823534</v>
       </c>
       <c r="H21">
-        <v>0.001628458616323769</v>
+        <v>0.001808260916732252</v>
       </c>
       <c r="I21">
-        <v>0.003354172920808196</v>
+        <v>0.003593452274799347</v>
       </c>
       <c r="J21">
-        <v>0.003556741634383798</v>
+        <v>0.003831986570730805</v>
       </c>
       <c r="K21">
-        <v>0.003260345896705985</v>
+        <v>0.00345900421962142</v>
       </c>
       <c r="L21">
-        <v>0.002984268823638558</v>
+        <v>0.003228601533919573</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>0.002989224391058087</v>
+        <v>0.003128060372546315</v>
       </c>
       <c r="B22">
-        <v>0.002854659222066402</v>
+        <v>0.00285415630787611</v>
       </c>
       <c r="C22">
-        <v>0.002458339324221015</v>
+        <v>0.002519871341064572</v>
       </c>
       <c r="D22">
-        <v>0.002159533556550741</v>
+        <v>0.002211028942838311</v>
       </c>
       <c r="E22">
-        <v>0.00264622294344008</v>
+        <v>0.002778378082439303</v>
       </c>
       <c r="F22">
-        <v>0.003860148135572672</v>
+        <v>0.004072864074259996</v>
       </c>
       <c r="G22">
-        <v>0.002379141049459577</v>
+        <v>0.002545348601415753</v>
       </c>
       <c r="H22">
-        <v>0.001461552688851953</v>
+        <v>0.001595805748365819</v>
       </c>
       <c r="I22">
-        <v>0.003309153253212571</v>
+        <v>0.003456560662016273</v>
       </c>
       <c r="J22">
-        <v>0.003420990193262696</v>
+        <v>0.003791014431044459</v>
       </c>
       <c r="K22">
-        <v>0.003130481345579028</v>
+        <v>0.0033630495890975</v>
       </c>
       <c r="L22">
-        <v>0.002827732590958476</v>
+        <v>0.002985136117786169</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>0.002886035246774554</v>
+        <v>0.003072262275964022</v>
       </c>
       <c r="B23">
-        <v>0.002621214836835861</v>
+        <v>0.002650019014254212</v>
       </c>
       <c r="C23">
-        <v>0.002417930867522955</v>
+        <v>0.002471272367984056</v>
       </c>
       <c r="D23">
-        <v>0.002055235905572772</v>
+        <v>0.002144487807527184</v>
       </c>
       <c r="E23">
-        <v>0.002554877428337932</v>
+        <v>0.002633983502164483</v>
       </c>
       <c r="F23">
-        <v>0.003688208758831024</v>
+        <v>0.003931814339011908</v>
       </c>
       <c r="G23">
-        <v>0.002137379953637719</v>
+        <v>0.002311605727300048</v>
       </c>
       <c r="H23">
-        <v>0.001429976080544293</v>
+        <v>0.001542974263429642</v>
       </c>
       <c r="I23">
-        <v>0.003203517757356167</v>
+        <v>0.003376438049599528</v>
       </c>
       <c r="J23">
-        <v>0.003347635036334395</v>
+        <v>0.003544284496456385</v>
       </c>
       <c r="K23">
-        <v>0.003000124823302031</v>
+        <v>0.00319684436544776</v>
       </c>
       <c r="L23">
-        <v>0.002636873163282871</v>
+        <v>0.002914185868576169</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>0.002624921500682831</v>
+        <v>0.00290349218994379</v>
       </c>
       <c r="B24">
-        <v>0.002587229711934924</v>
+        <v>0.002589564537629485</v>
       </c>
       <c r="C24">
-        <v>0.002221080241724849</v>
+        <v>0.002239295048639178</v>
       </c>
       <c r="D24">
-        <v>0.002036262536421418</v>
+        <v>0.002056583762168884</v>
       </c>
       <c r="E24">
-        <v>0.002430530032142997</v>
+        <v>0.002566395094618201</v>
       </c>
       <c r="F24">
-        <v>0.003596856724470854</v>
+        <v>0.00372220273129642</v>
       </c>
       <c r="G24">
-        <v>0.001999637810513377</v>
+        <v>0.002223866758868098</v>
       </c>
       <c r="H24">
-        <v>0.001251137699000537</v>
+        <v>0.001420905697159469</v>
       </c>
       <c r="I24">
-        <v>0.003087428165599704</v>
+        <v>0.003322423901408911</v>
       </c>
       <c r="J24">
-        <v>0.003242016304284334</v>
+        <v>0.003417604137212038</v>
       </c>
       <c r="K24">
-        <v>0.002943331841379404</v>
+        <v>0.003051369916647673</v>
       </c>
       <c r="L24">
-        <v>0.002591309370473027</v>
+        <v>0.002774796448647976</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>0.002582235494628549</v>
+        <v>0.002787610050290823</v>
       </c>
       <c r="B25">
-        <v>0.00241398997604847</v>
+        <v>0.002417536685243249</v>
       </c>
       <c r="C25">
-        <v>0.002179760485887527</v>
+        <v>0.002190872794017196</v>
       </c>
       <c r="D25">
-        <v>0.001930672558955848</v>
+        <v>0.002017964143306017</v>
       </c>
       <c r="E25">
-        <v>0.002342029707506299</v>
+        <v>0.00244538439437747</v>
       </c>
       <c r="F25">
-        <v>0.003238871693611145</v>
+        <v>0.003314922330901027</v>
       </c>
       <c r="G25">
-        <v>0.001847633742727339</v>
+        <v>0.002055409830063581</v>
       </c>
       <c r="H25">
-        <v>0.001163478591479361</v>
+        <v>0.001304423785768449</v>
       </c>
       <c r="I25">
-        <v>0.002868988551199436</v>
+        <v>0.003138609696179628</v>
       </c>
       <c r="J25">
-        <v>0.003188596107065678</v>
+        <v>0.003184614004567266</v>
       </c>
       <c r="K25">
-        <v>0.00287919002585113</v>
+        <v>0.003027702216058969</v>
       </c>
       <c r="L25">
-        <v>0.002531505189836025</v>
+        <v>0.002707090228796005</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>0.002513358136638999</v>
+        <v>0.002723435405641794</v>
       </c>
       <c r="B26">
-        <v>0.002373507944867015</v>
+        <v>0.002370018046349287</v>
       </c>
       <c r="C26">
-        <v>0.002124282531440258</v>
+        <v>0.002147230785340071</v>
       </c>
       <c r="D26">
-        <v>0.001769266789779067</v>
+        <v>0.001840346492826939</v>
       </c>
       <c r="E26">
-        <v>0.002259512664750218</v>
+        <v>0.00234071584418416</v>
       </c>
       <c r="F26">
-        <v>0.003167955204844475</v>
+        <v>0.003261187113821507</v>
       </c>
       <c r="G26">
-        <v>0.00172000820748508</v>
+        <v>0.001965584000572562</v>
       </c>
       <c r="H26">
-        <v>0.001023311750032008</v>
+        <v>0.001092322636395693</v>
       </c>
       <c r="I26">
-        <v>0.002706731669604778</v>
+        <v>0.002985547762364149</v>
       </c>
       <c r="J26">
-        <v>0.003000607015565038</v>
+        <v>0.003079062094911933</v>
       </c>
       <c r="K26">
-        <v>0.002832547295838594</v>
+        <v>0.002917567733675241</v>
       </c>
       <c r="L26">
-        <v>0.002362078754231334</v>
+        <v>0.002626706147566438</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>0.002435774775221944</v>
+        <v>0.002618506783619523</v>
       </c>
       <c r="B27">
-        <v>0.002265603514388204</v>
+        <v>0.002277344465255737</v>
       </c>
       <c r="C27">
-        <v>0.001938498928211629</v>
+        <v>0.001998455496504903</v>
       </c>
       <c r="D27">
-        <v>0.001704221009276807</v>
+        <v>0.001792724593542516</v>
       </c>
       <c r="E27">
-        <v>0.002085463842377067</v>
+        <v>0.002226400189101696</v>
       </c>
       <c r="F27">
-        <v>0.003043241566047072</v>
+        <v>0.003139380598440766</v>
       </c>
       <c r="G27">
-        <v>0.001573438290506601</v>
+        <v>0.001778725534677505</v>
       </c>
       <c r="H27">
-        <v>0.000976857147179544</v>
+        <v>0.001084125600755215</v>
       </c>
       <c r="I27">
-        <v>0.002634147880598903</v>
+        <v>0.002870840951800346</v>
       </c>
       <c r="J27">
-        <v>0.002777589950710535</v>
+        <v>0.002930470742285252</v>
       </c>
       <c r="K27">
-        <v>0.002682320773601532</v>
+        <v>0.002754081971943378</v>
       </c>
       <c r="L27">
-        <v>0.002311832970008254</v>
+        <v>0.002452837768942118</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>0.002350338967517018</v>
+        <v>0.002609989373013377</v>
       </c>
       <c r="B28">
-        <v>0.002148814266547561</v>
+        <v>0.00218515913002193</v>
       </c>
       <c r="C28">
-        <v>0.001879349118098617</v>
+        <v>0.00190855422988534</v>
       </c>
       <c r="D28">
-        <v>0.001656741835176945</v>
+        <v>0.001725094742141664</v>
       </c>
       <c r="E28">
-        <v>0.00208160444162786</v>
+        <v>0.00215820362791419</v>
       </c>
       <c r="F28">
-        <v>0.002877063350751996</v>
+        <v>0.002978053875267506</v>
       </c>
       <c r="G28">
-        <v>0.001508060493506491</v>
+        <v>0.001664753071963787</v>
       </c>
       <c r="H28">
-        <v>0.0008451437461189926</v>
+        <v>0.001063677715137601</v>
       </c>
       <c r="I28">
-        <v>0.002601098967716098</v>
+        <v>0.002727277809754014</v>
       </c>
       <c r="J28">
-        <v>0.002653344999998808</v>
+        <v>0.002904960187152028</v>
       </c>
       <c r="K28">
-        <v>0.002530731027945876</v>
+        <v>0.002629419323056936</v>
       </c>
       <c r="L28">
-        <v>0.002223179908469319</v>
+        <v>0.002351238392293453</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>0.002267844742164016</v>
+        <v>0.002495039952918887</v>
       </c>
       <c r="B29">
-        <v>0.002089595887809992</v>
+        <v>0.002089004032313824</v>
       </c>
       <c r="C29">
-        <v>0.001812826376408339</v>
+        <v>0.001844216953031719</v>
       </c>
       <c r="D29">
-        <v>0.001618924783542752</v>
+        <v>0.001653180457651615</v>
       </c>
       <c r="E29">
-        <v>0.00202088919468224</v>
+        <v>0.002128388965502381</v>
       </c>
       <c r="F29">
-        <v>0.002818269189447165</v>
+        <v>0.002865304239094257</v>
       </c>
       <c r="G29">
-        <v>0.001440309803001583</v>
+        <v>0.001582671422511339</v>
       </c>
       <c r="H29">
-        <v>0.0008178231073543429</v>
+        <v>0.0009117200970649719</v>
       </c>
       <c r="I29">
-        <v>0.002385365543887019</v>
+        <v>0.002593313110992312</v>
       </c>
       <c r="J29">
-        <v>0.002623447217047215</v>
+        <v>0.002806348260492086</v>
       </c>
       <c r="K29">
-        <v>0.002511196071282029</v>
+        <v>0.002613818040117621</v>
       </c>
       <c r="L29">
-        <v>0.00212601525709033</v>
+        <v>0.002329209353774786</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>0.002157913753762841</v>
+        <v>0.002345684682950377</v>
       </c>
       <c r="B30">
-        <v>0.002069871872663498</v>
+        <v>0.002085565123707056</v>
       </c>
       <c r="C30">
-        <v>0.001729113631881773</v>
+        <v>0.001776057993993163</v>
       </c>
       <c r="D30">
-        <v>0.001552111119963229</v>
+        <v>0.001637317356653512</v>
       </c>
       <c r="E30">
-        <v>0.001915777917020023</v>
+        <v>0.002008139854297042</v>
       </c>
       <c r="F30">
-        <v>0.002669419394806027</v>
+        <v>0.002763730706647038</v>
       </c>
       <c r="G30">
-        <v>0.001359804882667959</v>
+        <v>0.001460251398384571</v>
       </c>
       <c r="H30">
-        <v>0.0006614568410441279</v>
+        <v>0.0007250737398862839</v>
       </c>
       <c r="I30">
-        <v>0.002259817440062761</v>
+        <v>0.002543226350098848</v>
       </c>
       <c r="J30">
-        <v>0.002448839135468006</v>
+        <v>0.002712787827476859</v>
       </c>
       <c r="K30">
-        <v>0.002376838121563196</v>
+        <v>0.002435492351651192</v>
       </c>
       <c r="L30">
-        <v>0.00204685446806252</v>
+        <v>0.002165753161534667</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>0.002089926740154624</v>
+        <v>0.002199085429310799</v>
       </c>
       <c r="B31">
-        <v>0.001994573744013906</v>
+        <v>0.00200580945238471</v>
       </c>
       <c r="C31">
-        <v>0.001631579012610018</v>
+        <v>0.001687481882981956</v>
       </c>
       <c r="D31">
-        <v>0.001508931280113757</v>
+        <v>0.00158007419668138</v>
       </c>
       <c r="E31">
-        <v>0.001844792976044118</v>
+        <v>0.001971416873857379</v>
       </c>
       <c r="F31">
-        <v>0.002587594091892242</v>
+        <v>0.002606024965643883</v>
       </c>
       <c r="G31">
-        <v>0.001260370016098022</v>
+        <v>0.001318489434197545</v>
       </c>
       <c r="H31">
-        <v>0.0006153439171612263</v>
+        <v>0.0006687334971502423</v>
       </c>
       <c r="I31">
-        <v>0.002156610367819667</v>
+        <v>0.002385182771831751</v>
       </c>
       <c r="J31">
-        <v>0.00242938450537622</v>
+        <v>0.002645882545039058</v>
       </c>
       <c r="K31">
-        <v>0.002252064878121018</v>
+        <v>0.002411776455119252</v>
       </c>
       <c r="L31">
-        <v>0.002004870912060142</v>
+        <v>0.002147387247532606</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>0.002021653112024069</v>
+        <v>0.00212110229767859</v>
       </c>
       <c r="B32">
-        <v>0.001879185903817415</v>
+        <v>0.001882751821540296</v>
       </c>
       <c r="C32">
-        <v>0.001530488021671772</v>
+        <v>0.001560996053740382</v>
       </c>
       <c r="D32">
-        <v>0.001454934244975448</v>
+        <v>0.001507668406702578</v>
       </c>
       <c r="E32">
-        <v>0.001741832355037332</v>
+        <v>0.001796256517991424</v>
       </c>
       <c r="F32">
-        <v>0.002258756430819631</v>
+        <v>0.002458679024130106</v>
       </c>
       <c r="G32">
-        <v>0.001083398936316371</v>
+        <v>0.001142372959293425</v>
       </c>
       <c r="H32">
-        <v>0.000576540594920516</v>
+        <v>0.0006546396762132645</v>
       </c>
       <c r="I32">
-        <v>0.002114171162247658</v>
+        <v>0.002280627610161901</v>
       </c>
       <c r="J32">
-        <v>0.002404174534603953</v>
+        <v>0.002522598719224334</v>
       </c>
       <c r="K32">
-        <v>0.002146205864846706</v>
+        <v>0.002197671448811889</v>
       </c>
       <c r="L32">
-        <v>0.001921628485433757</v>
+        <v>0.002020814688876271</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>0.001924259122461081</v>
+        <v>0.00207415665499866</v>
       </c>
       <c r="B33">
-        <v>0.001840592245571315</v>
+        <v>0.001852459157817066</v>
       </c>
       <c r="C33">
-        <v>0.0014661067398265</v>
+        <v>0.001477874349802732</v>
       </c>
       <c r="D33">
-        <v>0.001370801241137087</v>
+        <v>0.001472137402743101</v>
       </c>
       <c r="E33">
-        <v>0.001682839822024107</v>
+        <v>0.001728538074530661</v>
       </c>
       <c r="F33">
-        <v>0.002214809879660606</v>
+        <v>0.002330401679500937</v>
       </c>
       <c r="G33">
-        <v>0.0008528554462827742</v>
+        <v>0.0009188242838717997</v>
       </c>
       <c r="H33">
-        <v>0.0004183825512882322</v>
+        <v>0.0004888673429377377</v>
       </c>
       <c r="I33">
-        <v>0.002083809114992619</v>
+        <v>0.002188595943152905</v>
       </c>
       <c r="J33">
-        <v>0.002227965742349625</v>
+        <v>0.002391716232523322</v>
       </c>
       <c r="K33">
-        <v>0.002111128065735102</v>
+        <v>0.002164038363844156</v>
       </c>
       <c r="L33">
-        <v>0.001789162633940578</v>
+        <v>0.001954137114807963</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>0.001889111706987023</v>
+        <v>0.002024552319198847</v>
       </c>
       <c r="B34">
-        <v>0.001773747615516186</v>
+        <v>0.001779621583409607</v>
       </c>
       <c r="C34">
-        <v>0.001423582783900201</v>
+        <v>0.001466769143007696</v>
       </c>
       <c r="D34">
-        <v>0.001342124887742102</v>
+        <v>0.001417383668012917</v>
       </c>
       <c r="E34">
-        <v>0.001676988787949085</v>
+        <v>0.001659798319451511</v>
       </c>
       <c r="F34">
-        <v>0.002117967465892434</v>
+        <v>0.002244471572339535</v>
       </c>
       <c r="G34">
-        <v>0.0007547388668172061</v>
+        <v>0.0008446728461422026</v>
       </c>
       <c r="H34">
-        <v>0.0004060074861627072</v>
+        <v>0.0004385231877677143</v>
       </c>
       <c r="I34">
-        <v>0.001976166386157274</v>
+        <v>0.002076421398669481</v>
       </c>
       <c r="J34">
-        <v>0.002166570397093892</v>
+        <v>0.002314995974302292</v>
       </c>
       <c r="K34">
-        <v>0.001975554972887039</v>
+        <v>0.002107524545863271</v>
       </c>
       <c r="L34">
-        <v>0.001774250995367765</v>
+        <v>0.001925702090375125</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>0.00178499857429415</v>
+        <v>0.001943264505825937</v>
       </c>
       <c r="B35">
-        <v>0.00173447176348418</v>
+        <v>0.001714685815386474</v>
       </c>
       <c r="C35">
-        <v>0.001392843201756477</v>
+        <v>0.001421125838533044</v>
       </c>
       <c r="D35">
-        <v>0.001275612623430789</v>
+        <v>0.001345451921224594</v>
       </c>
       <c r="E35">
-        <v>0.00155993306543678</v>
+        <v>0.001646955264732242</v>
       </c>
       <c r="F35">
-        <v>0.001968210563063622</v>
+        <v>0.0020388790871948</v>
       </c>
       <c r="G35">
-        <v>0.0006535478751175106</v>
+        <v>0.0007456480525434017</v>
       </c>
       <c r="H35">
-        <v>0.0003583587240427732</v>
+        <v>0.0004162772966083139</v>
       </c>
       <c r="I35">
-        <v>0.00186493550427258</v>
+        <v>0.002048764145001769</v>
       </c>
       <c r="J35">
-        <v>0.002137730363756418</v>
+        <v>0.002226472599431872</v>
       </c>
       <c r="K35">
-        <v>0.0019363381434232</v>
+        <v>0.00192409020382911</v>
       </c>
       <c r="L35">
-        <v>0.00172462675254792</v>
+        <v>0.001842552446760237</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>0.001782642910256982</v>
+        <v>0.00189295329619199</v>
       </c>
       <c r="B36">
-        <v>0.001696407096460462</v>
+        <v>0.001691533252596855</v>
       </c>
       <c r="C36">
-        <v>0.001355625805445015</v>
+        <v>0.001363805145956576</v>
       </c>
       <c r="D36">
-        <v>0.001212539500556886</v>
+        <v>0.001266155275516212</v>
       </c>
       <c r="E36">
-        <v>0.001486327964812517</v>
+        <v>0.001562805264256895</v>
       </c>
       <c r="F36">
-        <v>0.001951496698893607</v>
+        <v>0.002004505367949605</v>
       </c>
       <c r="G36">
-        <v>0.0005939699476584792</v>
+        <v>0.000640931713860482</v>
       </c>
       <c r="H36">
-        <v>0.0003390690835658461</v>
+        <v>0.0003916652058251202</v>
       </c>
       <c r="I36">
-        <v>0.00167507235892117</v>
+        <v>0.001891106716357172</v>
       </c>
       <c r="J36">
-        <v>0.002086290623992682</v>
+        <v>0.002105294959619641</v>
       </c>
       <c r="K36">
-        <v>0.001819773577153683</v>
+        <v>0.00189421558752656</v>
       </c>
       <c r="L36">
-        <v>0.001631502876989543</v>
+        <v>0.001826657215133309</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>0.00161949114408344</v>
+        <v>0.001788604771718383</v>
       </c>
       <c r="B37">
-        <v>0.00157617568038404</v>
+        <v>0.001613770378753543</v>
       </c>
       <c r="C37">
-        <v>0.001310945022851229</v>
+        <v>0.001337964902631938</v>
       </c>
       <c r="D37">
-        <v>0.00113580736797303</v>
+        <v>0.001231909496709704</v>
       </c>
       <c r="E37">
-        <v>0.0014083799906075</v>
+        <v>0.001534358249045908</v>
       </c>
       <c r="F37">
-        <v>0.001807454973459244</v>
+        <v>0.001827301923185587</v>
       </c>
       <c r="G37">
-        <v>0.0005431240424513817</v>
+        <v>0.0006246629636734724</v>
       </c>
       <c r="H37">
-        <v>0.0002493941283319145</v>
+        <v>0.0003015240363311023</v>
       </c>
       <c r="I37">
-        <v>0.001640096539631486</v>
+        <v>0.001767820096574724</v>
       </c>
       <c r="J37">
-        <v>0.001992670120671391</v>
+        <v>0.002033683704212308</v>
       </c>
       <c r="K37">
-        <v>0.001714668702334166</v>
+        <v>0.001785601605661213</v>
       </c>
       <c r="L37">
-        <v>0.001590311294421554</v>
+        <v>0.001731745898723602</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>0.001542788231745362</v>
+        <v>0.001724276342429221</v>
       </c>
       <c r="B38">
-        <v>0.001506397034972906</v>
+        <v>0.001533742528408766</v>
       </c>
       <c r="C38">
-        <v>0.00125221733469516</v>
+        <v>0.001257343450561166</v>
       </c>
       <c r="D38">
-        <v>0.001114429207518697</v>
+        <v>0.001162726199254394</v>
       </c>
       <c r="E38">
-        <v>0.001372690545395017</v>
+        <v>0.001448724651709199</v>
       </c>
       <c r="F38">
-        <v>0.001719977241009474</v>
+        <v>0.001817293465137482</v>
       </c>
       <c r="G38">
-        <v>0.0004347266803961247</v>
+        <v>0.0005069570033811033</v>
       </c>
       <c r="H38">
-        <v>0.0002365411928622052</v>
+        <v>0.0002709986874833703</v>
       </c>
       <c r="I38">
-        <v>0.001607912359759212</v>
+        <v>0.001673808204941452</v>
       </c>
       <c r="J38">
-        <v>0.001903795753605664</v>
+        <v>0.001983304042369127</v>
       </c>
       <c r="K38">
-        <v>0.001664996147155762</v>
+        <v>0.0017343710642308</v>
       </c>
       <c r="L38">
-        <v>0.001569862826727331</v>
+        <v>0.001660894718952477</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>0.001449861214496195</v>
+        <v>0.001693727099336684</v>
       </c>
       <c r="B39">
-        <v>0.001454580808058381</v>
+        <v>0.001455857302062213</v>
       </c>
       <c r="C39">
-        <v>0.001176862046122551</v>
+        <v>0.001175245153717697</v>
       </c>
       <c r="D39">
-        <v>0.001039996393956244</v>
+        <v>0.001110837678425014</v>
       </c>
       <c r="E39">
-        <v>0.001313004177063704</v>
+        <v>0.001341743278317153</v>
       </c>
       <c r="F39">
-        <v>0.001679652719758451</v>
+        <v>0.00175833364482969</v>
       </c>
       <c r="G39">
-        <v>0.0003725188144017011</v>
+        <v>0.0004360147286206484</v>
       </c>
       <c r="H39">
-        <v>0.0002229479141533375</v>
+        <v>0.0002430346939945593</v>
       </c>
       <c r="I39">
-        <v>0.00148611213080585</v>
+        <v>0.001581004005856812</v>
       </c>
       <c r="J39">
-        <v>0.00179010967258364</v>
+        <v>0.001846263068728149</v>
       </c>
       <c r="K39">
-        <v>0.001541018020361662</v>
+        <v>0.001688205869868398</v>
       </c>
       <c r="L39">
-        <v>0.00150512030813843</v>
+        <v>0.001621952163986862</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>0.001399490050971508</v>
+        <v>0.001632971223443747</v>
       </c>
       <c r="B40">
-        <v>0.00139315368141979</v>
+        <v>0.001393915736116469</v>
       </c>
       <c r="C40">
-        <v>0.001099435496143997</v>
+        <v>0.001149658346548676</v>
       </c>
       <c r="D40">
-        <v>0.001022951328195632</v>
+        <v>0.001091468380764127</v>
       </c>
       <c r="E40">
-        <v>0.001269294647499919</v>
+        <v>0.001316743670031428</v>
       </c>
       <c r="F40">
-        <v>0.00155781686771661</v>
+        <v>0.001699856948107481</v>
       </c>
       <c r="G40">
-        <v>0.0002446377475280315</v>
+        <v>0.0002942236897069961</v>
       </c>
       <c r="H40">
-        <v>0.000193627318367362</v>
+        <v>0.0002213195693911985</v>
       </c>
       <c r="I40">
-        <v>0.001317866030149162</v>
+        <v>0.001456763129681349</v>
       </c>
       <c r="J40">
-        <v>0.001690092030912638</v>
+        <v>0.001728010014630854</v>
       </c>
       <c r="K40">
-        <v>0.001510073663666844</v>
+        <v>0.001599106355570257</v>
       </c>
       <c r="L40">
-        <v>0.001486050081439316</v>
+        <v>0.001548312837257981</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>0.001342186471447349</v>
+        <v>0.001447660964913666</v>
       </c>
       <c r="B41">
-        <v>0.001370624522678554</v>
+        <v>0.001386491116136312</v>
       </c>
       <c r="C41">
-        <v>0.001066259341314435</v>
+        <v>0.001076454878784716</v>
       </c>
       <c r="D41">
-        <v>0.0009685370605438948</v>
+        <v>0.001034816028550267</v>
       </c>
       <c r="E41">
-        <v>0.001212587347254157</v>
+        <v>0.001228755107149482</v>
       </c>
       <c r="F41">
-        <v>0.001428593182936311</v>
+        <v>0.001500678714364767</v>
       </c>
       <c r="G41">
-        <v>0.0001921280636452138</v>
+        <v>0.0002065469598164782</v>
       </c>
       <c r="H41">
-        <v>0.0001516827323939651</v>
+        <v>0.0001860493066487834</v>
       </c>
       <c r="I41">
-        <v>0.001187511719763279</v>
+        <v>0.001248845248483121</v>
       </c>
       <c r="J41">
-        <v>0.001637724577449262</v>
+        <v>0.001708764815703034</v>
       </c>
       <c r="K41">
-        <v>0.001458416692912579</v>
+        <v>0.001571502536535263</v>
       </c>
       <c r="L41">
-        <v>0.001390629564411938</v>
+        <v>0.001530927605926991</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>0.00124986853916198</v>
+        <v>0.001424702466465533</v>
       </c>
       <c r="B42">
-        <v>0.001332499901764095</v>
+        <v>0.001353701110929251</v>
       </c>
       <c r="C42">
-        <v>0.0009992722189053893</v>
+        <v>0.0009987200610339642</v>
       </c>
       <c r="D42">
-        <v>0.0008884146809577942</v>
+        <v>0.0009686697740107775</v>
       </c>
       <c r="E42">
-        <v>0.001089418074116111</v>
+        <v>0.001150659518316388</v>
       </c>
       <c r="F42">
-        <v>0.001198865589685738</v>
+        <v>0.001189665752463043</v>
       </c>
       <c r="G42">
-        <v>0.0001204659711220302</v>
+        <v>0.0001358500740025192</v>
       </c>
       <c r="H42">
-        <v>0.0001214841904584318</v>
+        <v>0.0001326228812104091</v>
       </c>
       <c r="I42">
-        <v>0.001148259732872248</v>
+        <v>0.001187511836178601</v>
       </c>
       <c r="J42">
-        <v>0.001549297943711281</v>
+        <v>0.001643755123950541</v>
       </c>
       <c r="K42">
-        <v>0.001396680017933249</v>
+        <v>0.001539265038445592</v>
       </c>
       <c r="L42">
-        <v>0.001297120354138315</v>
+        <v>0.001410693861544132</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>0.001218951074406505</v>
+        <v>0.001354318694211543</v>
       </c>
       <c r="B43">
-        <v>0.001192104304209352</v>
+        <v>0.001196009921841323</v>
       </c>
       <c r="C43">
-        <v>0.0009668634156696498</v>
+        <v>0.0009846976026892662</v>
       </c>
       <c r="D43">
-        <v>0.0008490882464684546</v>
+        <v>0.0009031732915900648</v>
       </c>
       <c r="E43">
-        <v>0.0009525958448648453</v>
+        <v>0.00101538491435349</v>
       </c>
       <c r="F43">
-        <v>0.001081060385331511</v>
+        <v>0.001154760830104351</v>
       </c>
       <c r="G43">
-        <v>7.801929314155132E-05</v>
+        <v>9.358888928545639E-05</v>
       </c>
       <c r="H43">
-        <v>0.0001071001752279699</v>
+        <v>0.0001167818263638765</v>
       </c>
       <c r="I43">
-        <v>0.0009390524355694652</v>
+        <v>0.0009679751237854362</v>
       </c>
       <c r="J43">
-        <v>0.001457895152270794</v>
+        <v>0.001532895374111831</v>
       </c>
       <c r="K43">
-        <v>0.00127235206309706</v>
+        <v>0.001350706210359931</v>
       </c>
       <c r="L43">
-        <v>0.001134346006438136</v>
+        <v>0.001209415961056948</v>
       </c>
     </row>
   </sheetData>

--- a/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
@@ -453,1598 +453,1598 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>0.8073163628578186</v>
+        <v>0.9585121273994446</v>
       </c>
       <c r="B2">
-        <v>0.8270739912986755</v>
+        <v>0.9582011699676514</v>
       </c>
       <c r="C2">
-        <v>0.8379479646682739</v>
+        <v>0.9525303840637207</v>
       </c>
       <c r="D2">
-        <v>0.8535779714584351</v>
+        <v>0.9423379302024841</v>
       </c>
       <c r="E2">
-        <v>0.8283088207244873</v>
+        <v>0.916765570640564</v>
       </c>
       <c r="F2">
-        <v>0.7564305067062378</v>
+        <v>0.8454546332359314</v>
       </c>
       <c r="G2">
-        <v>0.8244964480400085</v>
+        <v>0.8498743176460266</v>
       </c>
       <c r="H2">
-        <v>0.8660292625427246</v>
+        <v>0.8897910118103027</v>
       </c>
       <c r="I2">
-        <v>0.7885241508483887</v>
+        <v>0.8378623723983765</v>
       </c>
       <c r="J2">
-        <v>0.7852979898452759</v>
+        <v>0.8817054033279419</v>
       </c>
       <c r="K2">
-        <v>0.8031231164932251</v>
+        <v>0.932239830493927</v>
       </c>
       <c r="L2">
-        <v>0.8215842247009277</v>
+        <v>0.9523499608039856</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>0.02685652114450932</v>
+        <v>0.005776862613856792</v>
       </c>
       <c r="B3">
-        <v>0.02269350737333298</v>
+        <v>0.00572946947067976</v>
       </c>
       <c r="C3">
-        <v>0.02385205775499344</v>
+        <v>0.007934589870274067</v>
       </c>
       <c r="D3">
-        <v>0.02092542685568333</v>
+        <v>0.008959152735769749</v>
       </c>
       <c r="E3">
-        <v>0.02531873434782028</v>
+        <v>0.01388468034565449</v>
       </c>
       <c r="F3">
-        <v>0.04367667064070702</v>
+        <v>0.03160537034273148</v>
       </c>
       <c r="G3">
-        <v>0.03647797554731369</v>
+        <v>0.04097998142242432</v>
       </c>
       <c r="H3">
-        <v>0.02907595224678516</v>
+        <v>0.03109315037727356</v>
       </c>
       <c r="I3">
-        <v>0.02761423215270042</v>
+        <v>0.02143240161240101</v>
       </c>
       <c r="J3">
-        <v>0.03540812805294991</v>
+        <v>0.02287010662257671</v>
       </c>
       <c r="K3">
-        <v>0.02269015274941921</v>
+        <v>0.008140373043715954</v>
       </c>
       <c r="L3">
-        <v>0.02030594274401665</v>
+        <v>0.005753790494054556</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>0.0151287941262126</v>
+        <v>0.003270649816840887</v>
       </c>
       <c r="B4">
-        <v>0.01583259552717209</v>
+        <v>0.003883551107719541</v>
       </c>
       <c r="C4">
-        <v>0.01715167798101902</v>
+        <v>0.004987515043467283</v>
       </c>
       <c r="D4">
-        <v>0.01519904565066099</v>
+        <v>0.006087890360504389</v>
       </c>
       <c r="E4">
-        <v>0.01601366885006428</v>
+        <v>0.008235929533839226</v>
       </c>
       <c r="F4">
-        <v>0.02203697711229324</v>
+        <v>0.01446766406297684</v>
       </c>
       <c r="G4">
-        <v>0.02049140818417072</v>
+        <v>0.01664564199745655</v>
       </c>
       <c r="H4">
-        <v>0.01520995143800974</v>
+        <v>0.01234139781445265</v>
       </c>
       <c r="I4">
-        <v>0.01871460117399693</v>
+        <v>0.01526730228215456</v>
       </c>
       <c r="J4">
-        <v>0.01264349371194839</v>
+        <v>0.007107315119355917</v>
       </c>
       <c r="K4">
-        <v>0.01597630605101585</v>
+        <v>0.005455406848341227</v>
       </c>
       <c r="L4">
-        <v>0.01298100594431162</v>
+        <v>0.003756451886147261</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>0.01380797848105431</v>
+        <v>0.003137065097689629</v>
       </c>
       <c r="B5">
-        <v>0.01193062122911215</v>
+        <v>0.002937941579148173</v>
       </c>
       <c r="C5">
-        <v>0.01206048205494881</v>
+        <v>0.003479939186945558</v>
       </c>
       <c r="D5">
-        <v>0.01109831593930721</v>
+        <v>0.004484141711145639</v>
       </c>
       <c r="E5">
-        <v>0.01082717347890139</v>
+        <v>0.00517819682136178</v>
       </c>
       <c r="F5">
-        <v>0.01288868207484484</v>
+        <v>0.008658675476908684</v>
       </c>
       <c r="G5">
-        <v>0.01182489655911922</v>
+        <v>0.01021687127649784</v>
       </c>
       <c r="H5">
-        <v>0.008751643821597099</v>
+        <v>0.00721778254956007</v>
       </c>
       <c r="I5">
-        <v>0.01477190852165222</v>
+        <v>0.01248191483318806</v>
       </c>
       <c r="J5">
-        <v>0.01180620118975639</v>
+        <v>0.006119760684669018</v>
       </c>
       <c r="K5">
-        <v>0.01391634717583656</v>
+        <v>0.004775624722242355</v>
       </c>
       <c r="L5">
-        <v>0.01105000637471676</v>
+        <v>0.002850230783224106</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>0.01203937362879515</v>
+        <v>0.002602705266326666</v>
       </c>
       <c r="B6">
-        <v>0.01091753132641315</v>
+        <v>0.002513521583750844</v>
       </c>
       <c r="C6">
-        <v>0.008700797334313393</v>
+        <v>0.002613898133859038</v>
       </c>
       <c r="D6">
-        <v>0.009478585794568062</v>
+        <v>0.003669371828436852</v>
       </c>
       <c r="E6">
-        <v>0.009398401714861393</v>
+        <v>0.004459208343178034</v>
       </c>
       <c r="F6">
-        <v>0.01238618232309818</v>
+        <v>0.007622430566698313</v>
       </c>
       <c r="G6">
-        <v>0.01035493426024914</v>
+        <v>0.008423180319368839</v>
       </c>
       <c r="H6">
-        <v>0.00854034535586834</v>
+        <v>0.006644350942224264</v>
       </c>
       <c r="I6">
-        <v>0.01232192851603031</v>
+        <v>0.009690235368907452</v>
       </c>
       <c r="J6">
-        <v>0.01102845463901758</v>
+        <v>0.006038059014827013</v>
       </c>
       <c r="K6">
-        <v>0.01160154026001692</v>
+        <v>0.004345763009041548</v>
       </c>
       <c r="L6">
-        <v>0.01042143441736698</v>
+        <v>0.002709808759391308</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>0.009270867332816124</v>
+        <v>0.001995365601032972</v>
       </c>
       <c r="B7">
-        <v>0.007584708742797375</v>
+        <v>0.001802746788598597</v>
       </c>
       <c r="C7">
-        <v>0.008497440256178379</v>
+        <v>0.002316269790753722</v>
       </c>
       <c r="D7">
-        <v>0.007396229077130556</v>
+        <v>0.002829543082043529</v>
       </c>
       <c r="E7">
-        <v>0.007711490150541067</v>
+        <v>0.003643737640231848</v>
       </c>
       <c r="F7">
-        <v>0.00981429684907198</v>
+        <v>0.005964824464172125</v>
       </c>
       <c r="G7">
-        <v>0.007750656921416521</v>
+        <v>0.007163494825363159</v>
       </c>
       <c r="H7">
-        <v>0.007703045383095741</v>
+        <v>0.005940483417361975</v>
       </c>
       <c r="I7">
-        <v>0.01061986200511456</v>
+        <v>0.008140460588037968</v>
       </c>
       <c r="J7">
-        <v>0.009760136716067791</v>
+        <v>0.005285473074764013</v>
       </c>
       <c r="K7">
-        <v>0.01017181202769279</v>
+        <v>0.003478584578260779</v>
       </c>
       <c r="L7">
-        <v>0.009889250621199608</v>
+        <v>0.002538174856454134</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>0.007972518913447857</v>
+        <v>0.001767878071404994</v>
       </c>
       <c r="B8">
-        <v>0.006493328139185905</v>
+        <v>0.001701876637525856</v>
       </c>
       <c r="C8">
-        <v>0.00620877742767334</v>
+        <v>0.001744850073009729</v>
       </c>
       <c r="D8">
-        <v>0.006027571856975555</v>
+        <v>0.002292518271133304</v>
       </c>
       <c r="E8">
-        <v>0.007280635181814432</v>
+        <v>0.003378609893843532</v>
       </c>
       <c r="F8">
-        <v>0.009435154497623444</v>
+        <v>0.005901304539293051</v>
       </c>
       <c r="G8">
-        <v>0.00761342141777277</v>
+        <v>0.006177809555083513</v>
       </c>
       <c r="H8">
-        <v>0.00679840799421072</v>
+        <v>0.005114909261465073</v>
       </c>
       <c r="I8">
-        <v>0.009464384987950325</v>
+        <v>0.007277789525687695</v>
       </c>
       <c r="J8">
-        <v>0.009158973582088947</v>
+        <v>0.004930152092128992</v>
       </c>
       <c r="K8">
-        <v>0.007817146368324757</v>
+        <v>0.002759782364591956</v>
       </c>
       <c r="L8">
-        <v>0.008721489459276199</v>
+        <v>0.002276768907904625</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>0.00659916689619422</v>
+        <v>0.001484156586229801</v>
       </c>
       <c r="B9">
-        <v>0.006334308069199324</v>
+        <v>0.001515061594545841</v>
       </c>
       <c r="C9">
-        <v>0.005964973475784063</v>
+        <v>0.001676740939728916</v>
       </c>
       <c r="D9">
-        <v>0.004877930507063866</v>
+        <v>0.001866039121523499</v>
       </c>
       <c r="E9">
-        <v>0.00680507579818368</v>
+        <v>0.00309415184892714</v>
       </c>
       <c r="F9">
-        <v>0.009240278042852879</v>
+        <v>0.005669533275067806</v>
       </c>
       <c r="G9">
-        <v>0.006697716191411018</v>
+        <v>0.005172491539269686</v>
       </c>
       <c r="H9">
-        <v>0.005636316724121571</v>
+        <v>0.004448918625712395</v>
       </c>
       <c r="I9">
-        <v>0.007392073515802622</v>
+        <v>0.005734385922551155</v>
       </c>
       <c r="J9">
-        <v>0.007851085625588894</v>
+        <v>0.004191667772829533</v>
       </c>
       <c r="K9">
-        <v>0.007513903081417084</v>
+        <v>0.002552449470385909</v>
       </c>
       <c r="L9">
-        <v>0.006372934672981501</v>
+        <v>0.001888703205622733</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>0.006130390334874392</v>
+        <v>0.001281371805816889</v>
       </c>
       <c r="B10">
-        <v>0.005760428495705128</v>
+        <v>0.001379602239467204</v>
       </c>
       <c r="C10">
-        <v>0.005052284337580204</v>
+        <v>0.001468314090743661</v>
       </c>
       <c r="D10">
-        <v>0.004589809570461512</v>
+        <v>0.00176274951081723</v>
       </c>
       <c r="E10">
-        <v>0.005687686614692211</v>
+        <v>0.002800913527607918</v>
       </c>
       <c r="F10">
-        <v>0.007942808791995049</v>
+        <v>0.004966895096004009</v>
       </c>
       <c r="G10">
-        <v>0.006236228160560131</v>
+        <v>0.004823805764317513</v>
       </c>
       <c r="H10">
-        <v>0.00519319623708725</v>
+        <v>0.003841859987005591</v>
       </c>
       <c r="I10">
-        <v>0.007165346294641495</v>
+        <v>0.005429851356893778</v>
       </c>
       <c r="J10">
-        <v>0.007334198337048292</v>
+        <v>0.00401739589869976</v>
       </c>
       <c r="K10">
-        <v>0.006590790115296841</v>
+        <v>0.002287424635142088</v>
       </c>
       <c r="L10">
-        <v>0.00607479689642787</v>
+        <v>0.001645736512728035</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>0.005462238099426031</v>
+        <v>0.001207472872920334</v>
       </c>
       <c r="B11">
-        <v>0.005326931830495596</v>
+        <v>0.001268619089387357</v>
       </c>
       <c r="C11">
-        <v>0.004900807049125433</v>
+        <v>0.001391945756040514</v>
       </c>
       <c r="D11">
-        <v>0.004015972372144461</v>
+        <v>0.001544293132610619</v>
       </c>
       <c r="E11">
-        <v>0.005166790448129177</v>
+        <v>0.002396526047959924</v>
       </c>
       <c r="F11">
-        <v>0.007341640070080757</v>
+        <v>0.0045330710709095</v>
       </c>
       <c r="G11">
-        <v>0.005337714217603207</v>
+        <v>0.004191961139440536</v>
       </c>
       <c r="H11">
-        <v>0.004459999036043882</v>
+        <v>0.003349837381392717</v>
       </c>
       <c r="I11">
-        <v>0.006942038889974356</v>
+        <v>0.005213834345340729</v>
       </c>
       <c r="J11">
-        <v>0.006597516126930714</v>
+        <v>0.003585415659472346</v>
       </c>
       <c r="K11">
-        <v>0.006295113824307919</v>
+        <v>0.002135653281584382</v>
       </c>
       <c r="L11">
-        <v>0.005862839054316282</v>
+        <v>0.001582691911607981</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>0.005082937888801098</v>
+        <v>0.001101838075555861</v>
       </c>
       <c r="B12">
-        <v>0.005020965822041035</v>
+        <v>0.001196307362988591</v>
       </c>
       <c r="C12">
-        <v>0.004445792641490698</v>
+        <v>0.001233871327713132</v>
       </c>
       <c r="D12">
-        <v>0.003937327768653631</v>
+        <v>0.001484602107666433</v>
       </c>
       <c r="E12">
-        <v>0.004867037292569876</v>
+        <v>0.002276022685691714</v>
       </c>
       <c r="F12">
-        <v>0.006766775622963905</v>
+        <v>0.004245484247803688</v>
       </c>
       <c r="G12">
-        <v>0.004842787515372038</v>
+        <v>0.003720113774761558</v>
       </c>
       <c r="H12">
-        <v>0.003987704869359732</v>
+        <v>0.002900172490626574</v>
       </c>
       <c r="I12">
-        <v>0.00589903537184</v>
+        <v>0.004423961509019136</v>
       </c>
       <c r="J12">
-        <v>0.006236107554286718</v>
+        <v>0.00332434568554163</v>
       </c>
       <c r="K12">
-        <v>0.006113674957305193</v>
+        <v>0.002060594037175179</v>
       </c>
       <c r="L12">
-        <v>0.00531087489798665</v>
+        <v>0.001420457847416401</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>0.004841416142880917</v>
+        <v>0.001066202879883349</v>
       </c>
       <c r="B13">
-        <v>0.004543006885796785</v>
+        <v>0.001096542691811919</v>
       </c>
       <c r="C13">
-        <v>0.004124417901039124</v>
+        <v>0.001135593396611512</v>
       </c>
       <c r="D13">
-        <v>0.003683397313579917</v>
+        <v>0.001384438364766538</v>
       </c>
       <c r="E13">
-        <v>0.004151233471930027</v>
+        <v>0.001952881924808025</v>
       </c>
       <c r="F13">
-        <v>0.006536769215017557</v>
+        <v>0.004048908594995737</v>
       </c>
       <c r="G13">
-        <v>0.004658135119825602</v>
+        <v>0.003471078351140022</v>
       </c>
       <c r="H13">
-        <v>0.003544227220118046</v>
+        <v>0.002501188078895211</v>
       </c>
       <c r="I13">
-        <v>0.005592864006757736</v>
+        <v>0.004190714564174414</v>
       </c>
       <c r="J13">
-        <v>0.005652216263115406</v>
+        <v>0.003018934279680252</v>
       </c>
       <c r="K13">
-        <v>0.005155277904123068</v>
+        <v>0.001862620003521442</v>
       </c>
       <c r="L13">
-        <v>0.005091361701488495</v>
+        <v>0.001343786832876503</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>0.004582902416586876</v>
+        <v>0.0009701501112431288</v>
       </c>
       <c r="B14">
-        <v>0.004187309183180332</v>
+        <v>0.001027151476591825</v>
       </c>
       <c r="C14">
-        <v>0.003869256237521768</v>
+        <v>0.00109305395744741</v>
       </c>
       <c r="D14">
-        <v>0.003306411439552903</v>
+        <v>0.00129849067889154</v>
       </c>
       <c r="E14">
-        <v>0.004074533469974995</v>
+        <v>0.001860937336459756</v>
       </c>
       <c r="F14">
-        <v>0.006391516886651516</v>
+        <v>0.003903557313606143</v>
       </c>
       <c r="G14">
-        <v>0.004368587862700224</v>
+        <v>0.003295951755717397</v>
       </c>
       <c r="H14">
-        <v>0.003300074953585863</v>
+        <v>0.002382136648520827</v>
       </c>
       <c r="I14">
-        <v>0.004982119426131248</v>
+        <v>0.003732775105163455</v>
       </c>
       <c r="J14">
-        <v>0.005230531096458435</v>
+        <v>0.002746386220678687</v>
       </c>
       <c r="K14">
-        <v>0.004702106118202209</v>
+        <v>0.001599086681380868</v>
       </c>
       <c r="L14">
-        <v>0.004453771747648716</v>
+        <v>0.001154274912551045</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>0.004294089507311583</v>
+        <v>0.0008940148982219398</v>
       </c>
       <c r="B15">
-        <v>0.003959503024816513</v>
+        <v>0.0009464746690355241</v>
       </c>
       <c r="C15">
-        <v>0.003596546361222863</v>
+        <v>0.001015816233120859</v>
       </c>
       <c r="D15">
-        <v>0.003120593726634979</v>
+        <v>0.001209420850500464</v>
       </c>
       <c r="E15">
-        <v>0.003839874407276511</v>
+        <v>0.001796085736714303</v>
       </c>
       <c r="F15">
-        <v>0.005721855908632278</v>
+        <v>0.00365167111158371</v>
       </c>
       <c r="G15">
-        <v>0.004057219717651606</v>
+        <v>0.003186106448993087</v>
       </c>
       <c r="H15">
-        <v>0.003140172688290477</v>
+        <v>0.002293121535331011</v>
       </c>
       <c r="I15">
-        <v>0.004930964205414057</v>
+        <v>0.003700154833495617</v>
       </c>
       <c r="J15">
-        <v>0.004960421938449144</v>
+        <v>0.002622259082272649</v>
       </c>
       <c r="K15">
-        <v>0.004589712247252464</v>
+        <v>0.001535777468234301</v>
       </c>
       <c r="L15">
-        <v>0.004160317592322826</v>
+        <v>0.001115181250497699</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>0.004121445119380951</v>
+        <v>0.0008750096312724054</v>
       </c>
       <c r="B16">
-        <v>0.00385802355594933</v>
+        <v>0.0009340601391158998</v>
       </c>
       <c r="C16">
-        <v>0.003454726189374924</v>
+        <v>0.0009709951118566096</v>
       </c>
       <c r="D16">
-        <v>0.002948123263195157</v>
+        <v>0.001125405076891184</v>
       </c>
       <c r="E16">
-        <v>0.003760929219424725</v>
+        <v>0.001712957746349275</v>
       </c>
       <c r="F16">
-        <v>0.005531077273190022</v>
+        <v>0.003357383422553539</v>
       </c>
       <c r="G16">
-        <v>0.004000904969871044</v>
+        <v>0.003074335400015116</v>
       </c>
       <c r="H16">
-        <v>0.002828463446348906</v>
+        <v>0.002050609793514013</v>
       </c>
       <c r="I16">
-        <v>0.004748118110001087</v>
+        <v>0.00365654076449573</v>
       </c>
       <c r="J16">
-        <v>0.004741066135466099</v>
+        <v>0.002551970770582557</v>
       </c>
       <c r="K16">
-        <v>0.004528364166617393</v>
+        <v>0.001521352562122047</v>
       </c>
       <c r="L16">
-        <v>0.004130010027438402</v>
+        <v>0.001063256175257266</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>0.004023122601211071</v>
+        <v>0.0008496798691339791</v>
       </c>
       <c r="B17">
-        <v>0.003595451358705759</v>
+        <v>0.0008466258877888322</v>
       </c>
       <c r="C17">
-        <v>0.003098219865933061</v>
+        <v>0.0008625563932582736</v>
       </c>
       <c r="D17">
-        <v>0.002809015335515141</v>
+        <v>0.00108223024290055</v>
       </c>
       <c r="E17">
-        <v>0.003481952240690589</v>
+        <v>0.00162875687237829</v>
       </c>
       <c r="F17">
-        <v>0.005365432240068913</v>
+        <v>0.003316693240776658</v>
       </c>
       <c r="G17">
-        <v>0.003591840621083975</v>
+        <v>0.002703215461224318</v>
       </c>
       <c r="H17">
-        <v>0.002542007016018033</v>
+        <v>0.001788483699783683</v>
       </c>
       <c r="I17">
-        <v>0.004570337943732738</v>
+        <v>0.003369227983057499</v>
       </c>
       <c r="J17">
-        <v>0.00459193391725421</v>
+        <v>0.002415606752038002</v>
       </c>
       <c r="K17">
-        <v>0.004306390881538391</v>
+        <v>0.001412783516570926</v>
       </c>
       <c r="L17">
-        <v>0.004020918160676956</v>
+        <v>0.00104458665009588</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>0.003792367875576019</v>
+        <v>0.0008048413437791169</v>
       </c>
       <c r="B18">
-        <v>0.003474553814157844</v>
+        <v>0.0008208297658711672</v>
       </c>
       <c r="C18">
-        <v>0.002914913464337587</v>
+        <v>0.0008309191325679421</v>
       </c>
       <c r="D18">
-        <v>0.002613944932818413</v>
+        <v>0.0009864011080935597</v>
       </c>
       <c r="E18">
-        <v>0.003396090352907777</v>
+        <v>0.001596582238562405</v>
       </c>
       <c r="F18">
-        <v>0.0047062779776752</v>
+        <v>0.002882587490603328</v>
       </c>
       <c r="G18">
-        <v>0.003222723258659244</v>
+        <v>0.002434070454910398</v>
       </c>
       <c r="H18">
-        <v>0.00218782969750464</v>
+        <v>0.001546045183204114</v>
       </c>
       <c r="I18">
-        <v>0.004369627218693495</v>
+        <v>0.003357762936502695</v>
       </c>
       <c r="J18">
-        <v>0.004494752734899521</v>
+        <v>0.002358569297939539</v>
       </c>
       <c r="K18">
-        <v>0.004160037729889154</v>
+        <v>0.001360704191029072</v>
       </c>
       <c r="L18">
-        <v>0.003723745932802558</v>
+        <v>0.001001731958240271</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>0.003768980270251632</v>
+        <v>0.0008009810699149966</v>
       </c>
       <c r="B19">
-        <v>0.003197781974449754</v>
+        <v>0.0007625118596479297</v>
       </c>
       <c r="C19">
-        <v>0.002820511115714908</v>
+        <v>0.0008082836284302175</v>
       </c>
       <c r="D19">
-        <v>0.002488194033503532</v>
+        <v>0.0009589413530193269</v>
       </c>
       <c r="E19">
-        <v>0.00330931693315506</v>
+        <v>0.001569473766721785</v>
       </c>
       <c r="F19">
-        <v>0.004546653479337692</v>
+        <v>0.002745616715401411</v>
       </c>
       <c r="G19">
-        <v>0.003025919198989868</v>
+        <v>0.002234086394309998</v>
       </c>
       <c r="H19">
-        <v>0.002103796927258372</v>
+        <v>0.001480016973800957</v>
       </c>
       <c r="I19">
-        <v>0.004090943839401007</v>
+        <v>0.003094404237344861</v>
       </c>
       <c r="J19">
-        <v>0.004261583089828491</v>
+        <v>0.002182951429858804</v>
       </c>
       <c r="K19">
-        <v>0.003719032742083073</v>
+        <v>0.001258050440810621</v>
       </c>
       <c r="L19">
-        <v>0.003598754294216633</v>
+        <v>0.0009622962097637355</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>0.00354605563916266</v>
+        <v>0.0007591043249703944</v>
       </c>
       <c r="B20">
-        <v>0.002933487528935075</v>
+        <v>0.000699061609338969</v>
       </c>
       <c r="C20">
-        <v>0.002715930342674255</v>
+        <v>0.0007884692749939859</v>
       </c>
       <c r="D20">
-        <v>0.002466718200594187</v>
+        <v>0.0009224790846928954</v>
       </c>
       <c r="E20">
-        <v>0.003008886473253369</v>
+        <v>0.001432498451322317</v>
       </c>
       <c r="F20">
-        <v>0.004416908137500286</v>
+        <v>0.002730552339926362</v>
       </c>
       <c r="G20">
-        <v>0.002774424152448773</v>
+        <v>0.00210437853820622</v>
       </c>
       <c r="H20">
-        <v>0.001887233462184668</v>
+        <v>0.001342968200333416</v>
       </c>
       <c r="I20">
-        <v>0.003923237323760986</v>
+        <v>0.00299155805259943</v>
       </c>
       <c r="J20">
-        <v>0.004058501217514277</v>
+        <v>0.00212547043338418</v>
       </c>
       <c r="K20">
-        <v>0.003612798405811191</v>
+        <v>0.001215507742017508</v>
       </c>
       <c r="L20">
-        <v>0.003279609140008688</v>
+        <v>0.0008554499363526702</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>0.003357064910233021</v>
+        <v>0.0007194919744506478</v>
       </c>
       <c r="B21">
-        <v>0.0029032276943326</v>
+        <v>0.0006887504714541137</v>
       </c>
       <c r="C21">
-        <v>0.002568573690950871</v>
+        <v>0.0007302970043383539</v>
       </c>
       <c r="D21">
-        <v>0.00226815277710557</v>
+        <v>0.0008674711571075022</v>
       </c>
       <c r="E21">
-        <v>0.002903519663959742</v>
+        <v>0.001360295806080103</v>
       </c>
       <c r="F21">
-        <v>0.004143277648836374</v>
+        <v>0.002571062883362174</v>
       </c>
       <c r="G21">
-        <v>0.00267909187823534</v>
+        <v>0.001939101726748049</v>
       </c>
       <c r="H21">
-        <v>0.001808260916732252</v>
+        <v>0.00128511618822813</v>
       </c>
       <c r="I21">
-        <v>0.003593452274799347</v>
+        <v>0.002685953164473176</v>
       </c>
       <c r="J21">
-        <v>0.003831986570730805</v>
+        <v>0.002027776092290878</v>
       </c>
       <c r="K21">
-        <v>0.00345900421962142</v>
+        <v>0.001163784763775766</v>
       </c>
       <c r="L21">
-        <v>0.003228601533919573</v>
+        <v>0.0008306264644488692</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>0.003128060372546315</v>
+        <v>0.0006658326019532979</v>
       </c>
       <c r="B22">
-        <v>0.00285415630787611</v>
+        <v>0.0006577193271368742</v>
       </c>
       <c r="C22">
-        <v>0.002519871341064572</v>
+        <v>0.0007151877507567406</v>
       </c>
       <c r="D22">
-        <v>0.002211028942838311</v>
+        <v>0.0008392154704779387</v>
       </c>
       <c r="E22">
-        <v>0.002778378082439303</v>
+        <v>0.00129479356110096</v>
       </c>
       <c r="F22">
-        <v>0.004072864074259996</v>
+        <v>0.002514392603188753</v>
       </c>
       <c r="G22">
-        <v>0.002545348601415753</v>
+        <v>0.001924536423757672</v>
       </c>
       <c r="H22">
-        <v>0.001595805748365819</v>
+        <v>0.001131710945628583</v>
       </c>
       <c r="I22">
-        <v>0.003456560662016273</v>
+        <v>0.002619630424305797</v>
       </c>
       <c r="J22">
-        <v>0.003791014431044459</v>
+        <v>0.001949271303601563</v>
       </c>
       <c r="K22">
-        <v>0.0033630495890975</v>
+        <v>0.001122313900850713</v>
       </c>
       <c r="L22">
-        <v>0.002985136117786169</v>
+        <v>0.0007778870640322566</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>0.003072262275964022</v>
+        <v>0.0006538314046338201</v>
       </c>
       <c r="B23">
-        <v>0.002650019014254212</v>
+        <v>0.000632631650660187</v>
       </c>
       <c r="C23">
-        <v>0.002471272367984056</v>
+        <v>0.0006999997422099113</v>
       </c>
       <c r="D23">
-        <v>0.002144487807527184</v>
+        <v>0.0008218963048420846</v>
       </c>
       <c r="E23">
-        <v>0.002633983502164483</v>
+        <v>0.001218609511852264</v>
       </c>
       <c r="F23">
-        <v>0.003931814339011908</v>
+        <v>0.00230335327796638</v>
       </c>
       <c r="G23">
-        <v>0.002311605727300048</v>
+        <v>0.001677510445006192</v>
       </c>
       <c r="H23">
-        <v>0.001542974263429642</v>
+        <v>0.001090906327590346</v>
       </c>
       <c r="I23">
-        <v>0.003376438049599528</v>
+        <v>0.002494538202881813</v>
       </c>
       <c r="J23">
-        <v>0.003544284496456385</v>
+        <v>0.00184959580656141</v>
       </c>
       <c r="K23">
-        <v>0.00319684436544776</v>
+        <v>0.001086077536456287</v>
       </c>
       <c r="L23">
-        <v>0.002914185868576169</v>
+        <v>0.0007455636514350772</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>0.00290349218994379</v>
+        <v>0.0006210246356204152</v>
       </c>
       <c r="B24">
-        <v>0.002589564537629485</v>
+        <v>0.000610432936809957</v>
       </c>
       <c r="C24">
-        <v>0.002239295048639178</v>
+        <v>0.0006405036547221243</v>
       </c>
       <c r="D24">
-        <v>0.002056583762168884</v>
+        <v>0.000791176047641784</v>
       </c>
       <c r="E24">
-        <v>0.002566395094618201</v>
+        <v>0.001169760711491108</v>
       </c>
       <c r="F24">
-        <v>0.00372220273129642</v>
+        <v>0.002227346878498793</v>
       </c>
       <c r="G24">
-        <v>0.002223866758868098</v>
+        <v>0.001647871686145663</v>
       </c>
       <c r="H24">
-        <v>0.001420905697159469</v>
+        <v>0.001003644545562565</v>
       </c>
       <c r="I24">
-        <v>0.003322423901408911</v>
+        <v>0.002483018906787038</v>
       </c>
       <c r="J24">
-        <v>0.003417604137212038</v>
+        <v>0.001769821043126285</v>
       </c>
       <c r="K24">
-        <v>0.003051369916647673</v>
+        <v>0.001037935959175229</v>
       </c>
       <c r="L24">
-        <v>0.002774796448647976</v>
+        <v>0.0007264440646395087</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>0.002787610050290823</v>
+        <v>0.0005995385581627488</v>
       </c>
       <c r="B25">
-        <v>0.002417536685243249</v>
+        <v>0.0005850064917467535</v>
       </c>
       <c r="C25">
-        <v>0.002190872794017196</v>
+        <v>0.0006160094635561109</v>
       </c>
       <c r="D25">
-        <v>0.002017964143306017</v>
+        <v>0.0007808204391039908</v>
       </c>
       <c r="E25">
-        <v>0.00244538439437747</v>
+        <v>0.00114743341691792</v>
       </c>
       <c r="F25">
-        <v>0.003314922330901027</v>
+        <v>0.002078081713989377</v>
       </c>
       <c r="G25">
-        <v>0.002055409830063581</v>
+        <v>0.001479545026086271</v>
       </c>
       <c r="H25">
-        <v>0.001304423785768449</v>
+        <v>0.0009168993565253913</v>
       </c>
       <c r="I25">
-        <v>0.003138609696179628</v>
+        <v>0.002285796217620373</v>
       </c>
       <c r="J25">
-        <v>0.003184614004567266</v>
+        <v>0.001663630828261375</v>
       </c>
       <c r="K25">
-        <v>0.003027702216058969</v>
+        <v>0.001031737308949232</v>
       </c>
       <c r="L25">
-        <v>0.002707090228796005</v>
+        <v>0.0006837367545813322</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>0.002723435405641794</v>
+        <v>0.0005731267738156021</v>
       </c>
       <c r="B26">
-        <v>0.002370018046349287</v>
+        <v>0.0005565566825680435</v>
       </c>
       <c r="C26">
-        <v>0.002147230785340071</v>
+        <v>0.0006044633337296546</v>
       </c>
       <c r="D26">
-        <v>0.001840346492826939</v>
+        <v>0.0007187940645962954</v>
       </c>
       <c r="E26">
-        <v>0.00234071584418416</v>
+        <v>0.001097040367312729</v>
       </c>
       <c r="F26">
-        <v>0.003261187113821507</v>
+        <v>0.00193694035988301</v>
       </c>
       <c r="G26">
-        <v>0.001965584000572562</v>
+        <v>0.001426034141331911</v>
       </c>
       <c r="H26">
-        <v>0.001092322636395693</v>
+        <v>0.0007824620115570724</v>
       </c>
       <c r="I26">
-        <v>0.002985547762364149</v>
+        <v>0.002166747581213713</v>
       </c>
       <c r="J26">
-        <v>0.003079062094911933</v>
+        <v>0.001629203790798783</v>
       </c>
       <c r="K26">
-        <v>0.002917567733675241</v>
+        <v>0.0009982767514884472</v>
       </c>
       <c r="L26">
-        <v>0.002626706147566438</v>
+        <v>0.0006634098826907575</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>0.002618506783619523</v>
+        <v>0.0005518397665582597</v>
       </c>
       <c r="B27">
-        <v>0.002277344465255737</v>
+        <v>0.0005481328116729856</v>
       </c>
       <c r="C27">
-        <v>0.001998455496504903</v>
+        <v>0.0005612254026345909</v>
       </c>
       <c r="D27">
-        <v>0.001792724593542516</v>
+        <v>0.0006956239813007414</v>
       </c>
       <c r="E27">
-        <v>0.002226400189101696</v>
+        <v>0.00104981439653784</v>
       </c>
       <c r="F27">
-        <v>0.003139380598440766</v>
+        <v>0.001850270549766719</v>
       </c>
       <c r="G27">
-        <v>0.001778725534677505</v>
+        <v>0.00122467742767185</v>
       </c>
       <c r="H27">
-        <v>0.001084125600755215</v>
+        <v>0.000743261247407645</v>
       </c>
       <c r="I27">
-        <v>0.002870840951800346</v>
+        <v>0.002111169975250959</v>
       </c>
       <c r="J27">
-        <v>0.002930470742285252</v>
+        <v>0.001594002242200077</v>
       </c>
       <c r="K27">
-        <v>0.002754081971943378</v>
+        <v>0.0009114863933064044</v>
       </c>
       <c r="L27">
-        <v>0.002452837768942118</v>
+        <v>0.0006347363814711571</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>0.002609989373013377</v>
+        <v>0.0005297755706124008</v>
       </c>
       <c r="B28">
-        <v>0.00218515913002193</v>
+        <v>0.0005179891013540328</v>
       </c>
       <c r="C28">
-        <v>0.00190855422988534</v>
+        <v>0.0005504899891093373</v>
       </c>
       <c r="D28">
-        <v>0.001725094742141664</v>
+        <v>0.0006694784387946129</v>
       </c>
       <c r="E28">
-        <v>0.00215820362791419</v>
+        <v>0.001014501671306789</v>
       </c>
       <c r="F28">
-        <v>0.002978053875267506</v>
+        <v>0.001766795176081359</v>
       </c>
       <c r="G28">
-        <v>0.001664753071963787</v>
+        <v>0.001203015563078225</v>
       </c>
       <c r="H28">
-        <v>0.001063677715137601</v>
+        <v>0.0007323219324462116</v>
       </c>
       <c r="I28">
-        <v>0.002727277809754014</v>
+        <v>0.002015965757891536</v>
       </c>
       <c r="J28">
-        <v>0.002904960187152028</v>
+        <v>0.001550637534819543</v>
       </c>
       <c r="K28">
-        <v>0.002629419323056936</v>
+        <v>0.0008813285385258496</v>
       </c>
       <c r="L28">
-        <v>0.002351238392293453</v>
+        <v>0.0006181956850923598</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>0.002495039952918887</v>
+        <v>0.0005262988270260394</v>
       </c>
       <c r="B29">
-        <v>0.002089004032313824</v>
+        <v>0.0004957326455041766</v>
       </c>
       <c r="C29">
-        <v>0.001844216953031719</v>
+        <v>0.0005295579321682453</v>
       </c>
       <c r="D29">
-        <v>0.001653180457651615</v>
+        <v>0.0006462829187512398</v>
       </c>
       <c r="E29">
-        <v>0.002128388965502381</v>
+        <v>0.001007441082037985</v>
       </c>
       <c r="F29">
-        <v>0.002865304239094257</v>
+        <v>0.001689485157839954</v>
       </c>
       <c r="G29">
-        <v>0.001582671422511339</v>
+        <v>0.001118468586355448</v>
       </c>
       <c r="H29">
-        <v>0.0009117200970649719</v>
+        <v>0.0006487392820417881</v>
       </c>
       <c r="I29">
-        <v>0.002593313110992312</v>
+        <v>0.001933329273015261</v>
       </c>
       <c r="J29">
-        <v>0.002806348260492086</v>
+        <v>0.001471170573495328</v>
       </c>
       <c r="K29">
-        <v>0.002613818040117621</v>
+        <v>0.0008619306609034538</v>
       </c>
       <c r="L29">
-        <v>0.002329209353774786</v>
+        <v>0.0006066181231290102</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>0.002345684682950377</v>
+        <v>0.0004917212063446641</v>
       </c>
       <c r="B30">
-        <v>0.002085565123707056</v>
+        <v>0.0004929169663228095</v>
       </c>
       <c r="C30">
-        <v>0.001776057993993163</v>
+        <v>0.0005180033040232956</v>
       </c>
       <c r="D30">
-        <v>0.001637317356653512</v>
+        <v>0.000630594789981842</v>
       </c>
       <c r="E30">
-        <v>0.002008139854297042</v>
+        <v>0.0009469827637076378</v>
       </c>
       <c r="F30">
-        <v>0.002763730706647038</v>
+        <v>0.001662163529545069</v>
       </c>
       <c r="G30">
-        <v>0.001460251398384571</v>
+        <v>0.001053549582138658</v>
       </c>
       <c r="H30">
-        <v>0.0007250737398862839</v>
+        <v>0.0004924443201161921</v>
       </c>
       <c r="I30">
-        <v>0.002543226350098848</v>
+        <v>0.001889587379992008</v>
       </c>
       <c r="J30">
-        <v>0.002712787827476859</v>
+        <v>0.00142908189445734</v>
       </c>
       <c r="K30">
-        <v>0.002435492351651192</v>
+        <v>0.0008331787539646029</v>
       </c>
       <c r="L30">
-        <v>0.002165753161534667</v>
+        <v>0.0005694341380149126</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>0.002199085429310799</v>
+        <v>0.0004657555546145886</v>
       </c>
       <c r="B31">
-        <v>0.00200580945238471</v>
+        <v>0.0004703441809397191</v>
       </c>
       <c r="C31">
-        <v>0.001687481882981956</v>
+        <v>0.0004593228513840586</v>
       </c>
       <c r="D31">
-        <v>0.00158007419668138</v>
+        <v>0.0006152159185148776</v>
       </c>
       <c r="E31">
-        <v>0.001971416873857379</v>
+        <v>0.0009281703387387097</v>
       </c>
       <c r="F31">
-        <v>0.002606024965643883</v>
+        <v>0.001559298485517502</v>
       </c>
       <c r="G31">
-        <v>0.001318489434197545</v>
+        <v>0.0009276962955482304</v>
       </c>
       <c r="H31">
-        <v>0.0006687334971502423</v>
+        <v>0.0004636622907128185</v>
       </c>
       <c r="I31">
-        <v>0.002385182771831751</v>
+        <v>0.001790851703844965</v>
       </c>
       <c r="J31">
-        <v>0.002645882545039058</v>
+        <v>0.001390862860716879</v>
       </c>
       <c r="K31">
-        <v>0.002411776455119252</v>
+        <v>0.0008038076921366155</v>
       </c>
       <c r="L31">
-        <v>0.002147387247532606</v>
+        <v>0.000539223023224622</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>0.00212110229767859</v>
+        <v>0.0004561116802506149</v>
       </c>
       <c r="B32">
-        <v>0.001882751821540296</v>
+        <v>0.0004602623521350324</v>
       </c>
       <c r="C32">
-        <v>0.001560996053740382</v>
+        <v>0.0004514692118391395</v>
       </c>
       <c r="D32">
-        <v>0.001507668406702578</v>
+        <v>0.0005765911191701889</v>
       </c>
       <c r="E32">
-        <v>0.001796256517991424</v>
+        <v>0.0008177655981853604</v>
       </c>
       <c r="F32">
-        <v>0.002458679024130106</v>
+        <v>0.001456650556065142</v>
       </c>
       <c r="G32">
-        <v>0.001142372959293425</v>
+        <v>0.0008161424193531275</v>
       </c>
       <c r="H32">
-        <v>0.0006546396762132645</v>
+        <v>0.0004482076328713447</v>
       </c>
       <c r="I32">
-        <v>0.002280627610161901</v>
+        <v>0.001668091979809105</v>
       </c>
       <c r="J32">
-        <v>0.002522598719224334</v>
+        <v>0.001330813276581466</v>
       </c>
       <c r="K32">
-        <v>0.002197671448811889</v>
+        <v>0.0007535428158007562</v>
       </c>
       <c r="L32">
-        <v>0.002020814688876271</v>
+        <v>0.0005322928191162646</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>0.00207415665499866</v>
+        <v>0.0004458017647266388</v>
       </c>
       <c r="B33">
-        <v>0.001852459157817066</v>
+        <v>0.0004456629976630211</v>
       </c>
       <c r="C33">
-        <v>0.001477874349802732</v>
+        <v>0.0004433239228092134</v>
       </c>
       <c r="D33">
-        <v>0.001472137402743101</v>
+        <v>0.0005659782327711582</v>
       </c>
       <c r="E33">
-        <v>0.001728538074530661</v>
+        <v>0.000801637361291796</v>
       </c>
       <c r="F33">
-        <v>0.002330401679500937</v>
+        <v>0.001366482814773917</v>
       </c>
       <c r="G33">
-        <v>0.0009188242838717997</v>
+        <v>0.0006309160962700844</v>
       </c>
       <c r="H33">
-        <v>0.0004888673429377377</v>
+        <v>0.0003381504211574793</v>
       </c>
       <c r="I33">
-        <v>0.002188595943152905</v>
+        <v>0.001545128761790693</v>
       </c>
       <c r="J33">
-        <v>0.002391716232523322</v>
+        <v>0.001233838498592377</v>
       </c>
       <c r="K33">
-        <v>0.002164038363844156</v>
+        <v>0.0007249415502883494</v>
       </c>
       <c r="L33">
-        <v>0.001954137114807963</v>
+        <v>0.0005176221020519733</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>0.002024552319198847</v>
+        <v>0.0004325510235503316</v>
       </c>
       <c r="B34">
-        <v>0.001779621583409607</v>
+        <v>0.0004212115018162876</v>
       </c>
       <c r="C34">
-        <v>0.001466769143007696</v>
+        <v>0.0004336631391197443</v>
       </c>
       <c r="D34">
-        <v>0.001417383668012917</v>
+        <v>0.0005519571132026613</v>
       </c>
       <c r="E34">
-        <v>0.001659798319451511</v>
+        <v>0.0007694765808992088</v>
       </c>
       <c r="F34">
-        <v>0.002244471572339535</v>
+        <v>0.001327938167378306</v>
       </c>
       <c r="G34">
-        <v>0.0008446728461422026</v>
+        <v>0.0005693291896022856</v>
       </c>
       <c r="H34">
-        <v>0.0004385231877677143</v>
+        <v>0.0002961635473184288</v>
       </c>
       <c r="I34">
-        <v>0.002076421398669481</v>
+        <v>0.00152446876745671</v>
       </c>
       <c r="J34">
-        <v>0.002314995974302292</v>
+        <v>0.001209106761962175</v>
       </c>
       <c r="K34">
-        <v>0.002107524545863271</v>
+        <v>0.0007153974729590118</v>
       </c>
       <c r="L34">
-        <v>0.001925702090375125</v>
+        <v>0.0004924301174469292</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>0.001943264505825937</v>
+        <v>0.0003989176475442946</v>
       </c>
       <c r="B35">
-        <v>0.001714685815386474</v>
+        <v>0.000406918436056003</v>
       </c>
       <c r="C35">
-        <v>0.001421125838533044</v>
+        <v>0.0004075526667293161</v>
       </c>
       <c r="D35">
-        <v>0.001345451921224594</v>
+        <v>0.0005223950138315558</v>
       </c>
       <c r="E35">
-        <v>0.001646955264732242</v>
+        <v>0.0007637101225554943</v>
       </c>
       <c r="F35">
-        <v>0.0020388790871948</v>
+        <v>0.001121008768677711</v>
       </c>
       <c r="G35">
-        <v>0.0007456480525434017</v>
+        <v>0.0005044606514275074</v>
       </c>
       <c r="H35">
-        <v>0.0004162772966083139</v>
+        <v>0.0002912628115154803</v>
       </c>
       <c r="I35">
-        <v>0.002048764145001769</v>
+        <v>0.001488504814915359</v>
       </c>
       <c r="J35">
-        <v>0.002226472599431872</v>
+        <v>0.001139677013270557</v>
       </c>
       <c r="K35">
-        <v>0.00192409020382911</v>
+        <v>0.0006547485245391726</v>
       </c>
       <c r="L35">
-        <v>0.001842552446760237</v>
+        <v>0.0004839541215915233</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>0.00189295329619199</v>
+        <v>0.0003942786133848131</v>
       </c>
       <c r="B36">
-        <v>0.001691533252596855</v>
+        <v>0.0003961259499192238</v>
       </c>
       <c r="C36">
-        <v>0.001363805145956576</v>
+        <v>0.0004015358863398433</v>
       </c>
       <c r="D36">
-        <v>0.001266155275516212</v>
+        <v>0.0004946229746565223</v>
       </c>
       <c r="E36">
-        <v>0.001562805264256895</v>
+        <v>0.0007292539812624454</v>
       </c>
       <c r="F36">
-        <v>0.002004505367949605</v>
+        <v>0.001108625903725624</v>
       </c>
       <c r="G36">
-        <v>0.000640931713860482</v>
+        <v>0.0004280011053197086</v>
       </c>
       <c r="H36">
-        <v>0.0003916652058251202</v>
+        <v>0.0002652082475833595</v>
       </c>
       <c r="I36">
-        <v>0.001891106716357172</v>
+        <v>0.001355103682726622</v>
       </c>
       <c r="J36">
-        <v>0.002105294959619641</v>
+        <v>0.001099559362046421</v>
       </c>
       <c r="K36">
-        <v>0.00189421558752656</v>
+        <v>0.0006357260281220078</v>
       </c>
       <c r="L36">
-        <v>0.001826657215133309</v>
+        <v>0.0004719280696008354</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>0.001788604771718383</v>
+        <v>0.0003752461343538016</v>
       </c>
       <c r="B37">
-        <v>0.001613770378753543</v>
+        <v>0.0003868295752909034</v>
       </c>
       <c r="C37">
-        <v>0.001337964902631938</v>
+        <v>0.0003953827254008502</v>
       </c>
       <c r="D37">
-        <v>0.001231909496709704</v>
+        <v>0.0004721119476016611</v>
       </c>
       <c r="E37">
-        <v>0.001534358249045908</v>
+        <v>0.0007123849936760962</v>
       </c>
       <c r="F37">
-        <v>0.001827301923185587</v>
+        <v>0.001064693322405219</v>
       </c>
       <c r="G37">
-        <v>0.0006246629636734724</v>
+        <v>0.0004266061005182564</v>
       </c>
       <c r="H37">
-        <v>0.0003015240363311023</v>
+        <v>0.0002062221901724115</v>
       </c>
       <c r="I37">
-        <v>0.001767820096574724</v>
+        <v>0.001299098483286798</v>
       </c>
       <c r="J37">
-        <v>0.002033683704212308</v>
+        <v>0.001061457325704396</v>
       </c>
       <c r="K37">
-        <v>0.001785601605661213</v>
+        <v>0.0005967204342596233</v>
       </c>
       <c r="L37">
-        <v>0.001731745898723602</v>
+        <v>0.0004549795121420175</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>0.001724276342429221</v>
+        <v>0.0003572522255126387</v>
       </c>
       <c r="B38">
-        <v>0.001533742528408766</v>
+        <v>0.0003681301604956388</v>
       </c>
       <c r="C38">
-        <v>0.001257343450561166</v>
+        <v>0.000360156234819442</v>
       </c>
       <c r="D38">
-        <v>0.001162726199254394</v>
+        <v>0.0004617912345565856</v>
       </c>
       <c r="E38">
-        <v>0.001448724651709199</v>
+        <v>0.0006802575662732124</v>
       </c>
       <c r="F38">
-        <v>0.001817293465137482</v>
+        <v>0.0009983540512621403</v>
       </c>
       <c r="G38">
-        <v>0.0005069570033811033</v>
+        <v>0.0003412598744034767</v>
       </c>
       <c r="H38">
-        <v>0.0002709986874833703</v>
+        <v>0.0001852773857535794</v>
       </c>
       <c r="I38">
-        <v>0.001673808204941452</v>
+        <v>0.001229783869348466</v>
       </c>
       <c r="J38">
-        <v>0.001983304042369127</v>
+        <v>0.001020175055600703</v>
       </c>
       <c r="K38">
-        <v>0.0017343710642308</v>
+        <v>0.0005752710276283324</v>
       </c>
       <c r="L38">
-        <v>0.001660894718952477</v>
+        <v>0.0004399260797072202</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>0.001693727099336684</v>
+        <v>0.0003539454482961446</v>
       </c>
       <c r="B39">
-        <v>0.001455857302062213</v>
+        <v>0.0003394394007045776</v>
       </c>
       <c r="C39">
-        <v>0.001175245153717697</v>
+        <v>0.0003507433284539729</v>
       </c>
       <c r="D39">
-        <v>0.001110837678425014</v>
+        <v>0.0004339063016232103</v>
       </c>
       <c r="E39">
-        <v>0.001341743278317153</v>
+        <v>0.0006249661091715097</v>
       </c>
       <c r="F39">
-        <v>0.00175833364482969</v>
+        <v>0.0009047013008967042</v>
       </c>
       <c r="G39">
-        <v>0.0004360147286206484</v>
+        <v>0.0002898058155551553</v>
       </c>
       <c r="H39">
-        <v>0.0002430346939945593</v>
+        <v>0.0001643970172153786</v>
       </c>
       <c r="I39">
-        <v>0.001581004005856812</v>
+        <v>0.001092375139705837</v>
       </c>
       <c r="J39">
-        <v>0.001846263068728149</v>
+        <v>0.0009655103785917163</v>
       </c>
       <c r="K39">
-        <v>0.001688205869868398</v>
+        <v>0.000567556475289166</v>
       </c>
       <c r="L39">
-        <v>0.001621952163986862</v>
+        <v>0.0004232460632920265</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>0.001632971223443747</v>
+        <v>0.0003422220179345459</v>
       </c>
       <c r="B40">
-        <v>0.001393915736116469</v>
+        <v>0.0003342519048601389</v>
       </c>
       <c r="C40">
-        <v>0.001149658346548676</v>
+        <v>0.0003369440382812172</v>
       </c>
       <c r="D40">
-        <v>0.001091468380764127</v>
+        <v>0.0004188065067864954</v>
       </c>
       <c r="E40">
-        <v>0.001316743670031428</v>
+        <v>0.0006173779838718474</v>
       </c>
       <c r="F40">
-        <v>0.001699856948107481</v>
+        <v>0.0008497549570165575</v>
       </c>
       <c r="G40">
-        <v>0.0002942236897069961</v>
+        <v>0.0001933309249579906</v>
       </c>
       <c r="H40">
-        <v>0.0002213195693911985</v>
+        <v>0.0001509573339717463</v>
       </c>
       <c r="I40">
-        <v>0.001456763129681349</v>
+        <v>0.001013447181321681</v>
       </c>
       <c r="J40">
-        <v>0.001728010014630854</v>
+        <v>0.0009035398252308369</v>
       </c>
       <c r="K40">
-        <v>0.001599106355570257</v>
+        <v>0.000547741714399308</v>
       </c>
       <c r="L40">
-        <v>0.001548312837257981</v>
+        <v>0.0003965303767472506</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>0.001447660964913666</v>
+        <v>0.0003088401863351464</v>
       </c>
       <c r="B41">
-        <v>0.001386491116136312</v>
+        <v>0.000326606968883425</v>
       </c>
       <c r="C41">
-        <v>0.001076454878784716</v>
+        <v>0.0003197209443897009</v>
       </c>
       <c r="D41">
-        <v>0.001034816028550267</v>
+        <v>0.0004047156544402242</v>
       </c>
       <c r="E41">
-        <v>0.001228755107149482</v>
+        <v>0.0005758984480053186</v>
       </c>
       <c r="F41">
-        <v>0.001500678714364767</v>
+        <v>0.0007457821629941463</v>
       </c>
       <c r="G41">
-        <v>0.0002065469598164782</v>
+        <v>0.0001353397965431213</v>
       </c>
       <c r="H41">
-        <v>0.0001860493066487834</v>
+        <v>0.0001271717774216086</v>
       </c>
       <c r="I41">
-        <v>0.001248845248483121</v>
+        <v>0.0008404678083024919</v>
       </c>
       <c r="J41">
-        <v>0.001708764815703034</v>
+        <v>0.0008813937893137336</v>
       </c>
       <c r="K41">
-        <v>0.001571502536535263</v>
+        <v>0.0005274320719763637</v>
       </c>
       <c r="L41">
-        <v>0.001530927605926991</v>
+        <v>0.0003926089266315103</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>0.001424702466465533</v>
+        <v>0.0002915965742431581</v>
       </c>
       <c r="B42">
-        <v>0.001353701110929251</v>
+        <v>0.0003121562185697258</v>
       </c>
       <c r="C42">
-        <v>0.0009987200610339642</v>
+        <v>0.0002985481405630708</v>
       </c>
       <c r="D42">
-        <v>0.0009686697740107775</v>
+        <v>0.0003820628626272082</v>
       </c>
       <c r="E42">
-        <v>0.001150659518316388</v>
+        <v>0.000532752659637481</v>
       </c>
       <c r="F42">
-        <v>0.001189665752463043</v>
+        <v>0.0006093864212743938</v>
       </c>
       <c r="G42">
-        <v>0.0001358500740025192</v>
+        <v>8.886676369002089E-05</v>
       </c>
       <c r="H42">
-        <v>0.0001326228812104091</v>
+        <v>8.853257168084383E-05</v>
       </c>
       <c r="I42">
-        <v>0.001187511836178601</v>
+        <v>0.0007772152312099934</v>
       </c>
       <c r="J42">
-        <v>0.001643755123950541</v>
+        <v>0.000851184653583914</v>
       </c>
       <c r="K42">
-        <v>0.001539265038445592</v>
+        <v>0.0005106388707645237</v>
       </c>
       <c r="L42">
-        <v>0.001410693861544132</v>
+        <v>0.0003748795425053686</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>0.001354318694211543</v>
+        <v>0.0002876677608583122</v>
       </c>
       <c r="B43">
-        <v>0.001196009921841323</v>
+        <v>0.0002830661542247981</v>
       </c>
       <c r="C43">
-        <v>0.0009846976026892662</v>
+        <v>0.0002920013794209808</v>
       </c>
       <c r="D43">
-        <v>0.0009031732915900648</v>
+        <v>0.000352481787558645</v>
       </c>
       <c r="E43">
-        <v>0.00101538491435349</v>
+        <v>0.0004760771698784083</v>
       </c>
       <c r="F43">
-        <v>0.001154760830104351</v>
+        <v>0.000560549960937351</v>
       </c>
       <c r="G43">
-        <v>9.358888928545639E-05</v>
+        <v>6.105492502683774E-05</v>
       </c>
       <c r="H43">
-        <v>0.0001167818263638765</v>
+        <v>7.876080053392798E-05</v>
       </c>
       <c r="I43">
-        <v>0.0009679751237854362</v>
+        <v>0.0006420742138288915</v>
       </c>
       <c r="J43">
-        <v>0.001532895374111831</v>
+        <v>0.0007814607233740389</v>
       </c>
       <c r="K43">
-        <v>0.001350706210359931</v>
+        <v>0.0004610533942468464</v>
       </c>
       <c r="L43">
-        <v>0.001209415961056948</v>
+        <v>0.0003103562339674681</v>
       </c>
     </row>
   </sheetData>

--- a/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,215 +439,346 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.1093680188059807</v>
       </c>
+      <c r="B2" t="n">
+        <v>0.09274386614561081</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.07749371975660324</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.07743401080369949</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.06218824908137321</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.05229384079575539</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>0.05281843245029449</v>
       </c>
+      <c r="B5" t="n">
+        <v>0.04950251057744026</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.04702460765838623</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.0419447124004364</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.03959570452570915</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.03673277422785759</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0.03446648269891739</v>
       </c>
+      <c r="B8" t="n">
+        <v>0.03609712421894073</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0.03123152256011963</v>
       </c>
+      <c r="B9" t="n">
+        <v>0.03414048999547958</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.03045325540006161</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.03217586502432823</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>0.02852308750152588</v>
       </c>
+      <c r="B11" t="n">
+        <v>0.03107269108295441</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>0.02807699516415596</v>
       </c>
+      <c r="B12" t="n">
+        <v>0.02922134846448898</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.02702027186751366</v>
       </c>
+      <c r="B13" t="n">
+        <v>0.02780522778630257</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0.02491737902164459</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.02683926746249199</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>0.02320364490151405</v>
       </c>
+      <c r="B15" t="n">
+        <v>0.02494245581328869</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.02190515212714672</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.02391288802027702</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.02124162018299103</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.02319941483438015</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.02036030404269695</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.0227432232350111</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.02018691785633564</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.02103416062891483</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.01973873563110828</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.02032262086868286</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.01876218616962433</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.02018962427973747</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.01819640211760998</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.01846086606383324</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>0.01778173446655273</v>
       </c>
+      <c r="B23" t="n">
+        <v>0.01779202371835709</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>0.01697730273008347</v>
       </c>
+      <c r="B24" t="n">
+        <v>0.01717290468513966</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.01608412526547909</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.01652219332754612</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.01550963707268238</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.01566002517938614</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.0149554330855608</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.01548685599118471</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>0.01444342359900475</v>
       </c>
+      <c r="B28" t="n">
+        <v>0.01517082937061787</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>0.0137763200327754</v>
       </c>
+      <c r="B29" t="n">
+        <v>0.01474781520664692</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>0.01331396028399467</v>
       </c>
+      <c r="B30" t="n">
+        <v>0.01383950188755989</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>0.01270310487598181</v>
       </c>
+      <c r="B31" t="n">
+        <v>0.01339646615087986</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.01257488690316677</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.01315639819949865</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.01178669091314077</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.01280652731657028</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>0.01131160091608763</v>
       </c>
+      <c r="B34" t="n">
+        <v>0.01226407196372747</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.01090616546571255</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.01142692100256681</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.01021838467568159</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.01095853932201862</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.0100672785192728</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.01067796442657709</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.009212486445903778</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.01048344094306231</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.00871895719319582</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.01010326109826565</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.008323291316628456</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.009433181956410408</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.007693667430430651</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.008241328410804272</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.006868749391287565</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.007850775495171547</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>6.274947045483884e-18</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.972525942010459e-18</v>
       </c>
     </row>
   </sheetData>

--- a/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,56 @@
           <t>2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -452,6 +502,36 @@
       <c r="B2" t="n">
         <v>0.09274386614561081</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.117696613073349</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1147505342960358</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1355419605970383</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.198231041431427</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2297586649656296</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1531559973955154</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09801967442035675</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1574626863002777</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09306417405605316</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1140516474843025</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -460,6 +540,36 @@
       <c r="B3" t="n">
         <v>0.07743401080369949</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.06877364963293076</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08067106455564499</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06899027526378632</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07616633176803589</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1234550476074219</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.07356687635183334</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.06852183490991592</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05621287226676941</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0683695450425148</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.07097554206848145</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -468,6 +578,36 @@
       <c r="B4" t="n">
         <v>0.05229384079575539</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.06729238480329514</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06434258818626404</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05062343180179596</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06175826489925385</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.07915123552083969</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0670073926448822</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06133376806974411</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04852304607629776</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06006099283695221</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05333355069160461</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -476,6 +616,36 @@
       <c r="B5" t="n">
         <v>0.04950251057744026</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.05351328477263451</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05439808964729309</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04904606938362122</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05416468158364296</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.06967274844646454</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.06387048214673996</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05015856400132179</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.04408428072929382</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05421240255236626</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.04991744458675385</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -484,6 +654,36 @@
       <c r="B6" t="n">
         <v>0.0419447124004364</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.04929415509104729</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04662769287824631</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04533115029335022</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04257034882903099</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.06235538795590401</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.06010306254029274</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04965679720044136</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.04037827625870705</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.04628706350922585</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04785268008708954</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -492,6 +692,36 @@
       <c r="B7" t="n">
         <v>0.03673277422785759</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.04189349710941315</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04253917187452316</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03969820216298103</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0388290137052536</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05856871232390404</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.05050433427095413</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0449686273932457</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03655165061354637</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04036521911621094</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.042680773884058</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -500,6 +730,36 @@
       <c r="B8" t="n">
         <v>0.03609712421894073</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.04006700962781906</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03838459402322769</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03676043450832367</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03803860768675804</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03578697517514229</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04623236507177353</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03987497091293335</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.03519820049405098</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.03659946098923683</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.04139972105622292</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -508,6 +768,36 @@
       <c r="B9" t="n">
         <v>0.03414048999547958</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.03738147392868996</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03315179422497749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03385865688323975</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03455705568194389</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02877422980964184</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0416281558573246</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03612862899899483</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03106196783483028</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.03565936908125877</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03796902298927307</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -516,6 +806,36 @@
       <c r="B10" t="n">
         <v>0.03217586502432823</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.0337996631860733</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03140239417552948</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03363600000739098</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03216956183314323</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.02785801514983177</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.04037057980895042</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03436810523271561</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.02951305918395519</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03348608687520027</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03178960829973221</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -524,6 +844,36 @@
       <c r="B11" t="n">
         <v>0.03107269108295441</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.02924484945833683</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03067612834274769</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03222093358635902</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02935073524713516</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02539283409714699</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03544637560844421</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.03336072340607643</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.02829466015100479</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.03256680443882942</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03040699474513531</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -532,6 +882,36 @@
       <c r="B12" t="n">
         <v>0.02922134846448898</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.02842313796281815</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02867592126131058</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02961232513189316</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02715164795517921</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02289757877588272</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.03356698527932167</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.03176772221922874</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02704126201570034</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.03029556572437286</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.02873291075229645</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -540,6 +920,36 @@
       <c r="B13" t="n">
         <v>0.02780522778630257</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.02500544860959053</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02766196615993977</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02873736806213856</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02511109225451946</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02184286899864674</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03063421696424484</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.03054765798151493</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02633400075137615</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.02844447828829288</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.02710217051208019</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -548,6 +958,36 @@
       <c r="B14" t="n">
         <v>0.02683926746249199</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.02337374724447727</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02493531815707684</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02535893395543098</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0226706899702549</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02146085351705551</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02881429903209209</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.02867836877703667</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02497756294906139</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.02572961524128914</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.02580254897475243</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -556,6 +996,36 @@
       <c r="B15" t="n">
         <v>0.02494245581328869</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.02189086936414242</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02439107745885849</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.02279150299727917</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02253715880215168</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.02052129991352558</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02553158067166805</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0279552023857832</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02401316165924072</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.02428794652223587</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02500148117542267</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -564,6 +1034,36 @@
       <c r="B16" t="n">
         <v>0.02391288802027702</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.02106943167746067</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02254328317940235</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.02250942774116993</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02074809744954109</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01955326274037361</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02184589393436909</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02610619552433491</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02301144599914551</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.02337499894201756</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0223133247345686</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -572,6 +1072,36 @@
       <c r="B17" t="n">
         <v>0.02319941483438015</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.02081485651433468</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02147139236330986</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02183237671852112</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01988231018185616</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01684893108904362</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02093236893415451</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.02508015558123589</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02246208302676678</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.02259283512830734</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.02184979617595673</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -580,6 +1110,36 @@
       <c r="B18" t="n">
         <v>0.0227432232350111</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.02015852555632591</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02110410295426846</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02021206542849541</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01846012659370899</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01596915535628796</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0201007816940546</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0227826926857233</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02163539826869965</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.02051719836890697</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.02118591032922268</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -588,6 +1148,36 @@
       <c r="B19" t="n">
         <v>0.02103416062891483</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.01977603323757648</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01932637393474579</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0196241233497858</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01783558167517185</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01298952847719193</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01823626831173897</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02228694595396519</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02075069956481457</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02035099826753139</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.01980512589216232</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -596,6 +1186,36 @@
       <c r="B20" t="n">
         <v>0.02032262086868286</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.01846689358353615</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01848668232560158</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01887455396354198</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01653555408120155</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01155384723097086</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01792440563440323</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.02138125337660313</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.02038607001304626</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01885040290653706</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.01910353265702724</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -604,6 +1224,36 @@
       <c r="B21" t="n">
         <v>0.02018962427973747</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.01784691773355007</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01821049302816391</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01796766184270382</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01600257307291031</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01108483504503965</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01682190783321857</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02013590559363365</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01943310350179672</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01864826492965221</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01835615560412407</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -612,6 +1262,36 @@
       <c r="B22" t="n">
         <v>0.01846086606383324</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.01743703708052635</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01663231290876865</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.016812888905406</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01575429923832417</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01045507844537497</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01583814434707165</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01946773193776608</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01893092319369316</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0175385344773531</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01807487569749355</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -620,6 +1300,36 @@
       <c r="B23" t="n">
         <v>0.01779202371835709</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.01670893281698227</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01633746363222599</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01661964878439903</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01452508009970188</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.009701820090413094</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01500230841338634</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01885665208101273</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01752587594091892</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.01725584827363491</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01632418297231197</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -628,6 +1338,36 @@
       <c r="B24" t="n">
         <v>0.01717290468513966</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.0160038098692894</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01566179841756821</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01555501390248537</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01309275347739458</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.008797693997621536</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01332011260092258</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01720346324145794</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01685035787522793</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01625458896160126</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.01605537161231041</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -636,6 +1376,36 @@
       <c r="B25" t="n">
         <v>0.01652219332754612</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.01489696279168129</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01486706640571356</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01497976388782263</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0129198282957077</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.007884571328759193</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01192096993327141</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01693747006356716</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01672881469130516</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01567908748984337</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01557675562798977</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -644,6 +1414,36 @@
       <c r="B26" t="n">
         <v>0.01566002517938614</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.01436190027743578</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01406300906091928</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01440583169460297</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01231405232101679</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.007467464543879032</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01152944378554821</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01491872500628233</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01548146829009056</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0152316689491272</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.01515600178390741</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -652,6 +1452,36 @@
       <c r="B27" t="n">
         <v>0.01548685599118471</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.01367706526070833</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01379212643951178</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01399984303861856</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0117089943960309</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.007290530018508434</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.009703228250145912</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01418040785938501</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01519561186432838</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.01493680942803621</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.014850745908916</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -660,6 +1490,36 @@
       <c r="B28" t="n">
         <v>0.01517082937061787</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.01327989809215069</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01313493307679892</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0132850157096982</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01118162367492914</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.006380783393979073</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00740034831687808</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01393056008964777</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01492695976048708</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.01443468313664198</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01374811492860317</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -668,6 +1528,36 @@
       <c r="B29" t="n">
         <v>0.01474781520664692</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.01284684985876083</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01219681557267904</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01283936575055122</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01095981523394585</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.005028935614973307</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.006695519667118788</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01287753041833639</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01409176364541054</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01434721890836954</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01355032157152891</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -676,6 +1566,36 @@
       <c r="B30" t="n">
         <v>0.01383950188755989</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.01255478523671627</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01181857008486986</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01244290266185999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.009948692284524441</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.004854968748986721</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.006448370404541492</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01220494695007801</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0134003022685647</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01328580174595118</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01279322989284992</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -684,6 +1604,36 @@
       <c r="B31" t="n">
         <v>0.01339646615087986</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.01184686738997698</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01153106521815062</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01207163464277983</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.009605774655938148</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002992708003148437</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.005884209182113409</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01096224598586559</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01260247081518173</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01308641210198402</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01192657742649317</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -692,6 +1642,36 @@
       <c r="B32" t="n">
         <v>0.01315639819949865</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.01153274159878492</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01088565215468407</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01132851094007492</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.00909818708896637</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.002607493428513408</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.005220022518187761</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01032471749931574</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0121587784960866</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01282530464231968</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01169577892869711</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -700,6 +1680,36 @@
       <c r="B33" t="n">
         <v>0.01280652731657028</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.01128531713038683</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01061777956783772</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01121367886662483</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.008310729637742043</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.002391478745266795</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.004858801607042551</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.009802629239857197</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01183720864355564</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01255962438881397</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01101966481655836</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -708,6 +1718,36 @@
       <c r="B34" t="n">
         <v>0.01226407196372747</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.01104246638715267</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01032621413469315</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01096050720661879</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.007282881997525692</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.002023163018748164</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.00428632739931345</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.00931154377758503</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01120924483984709</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01173003856092691</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.01055661030113697</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -716,6 +1756,36 @@
       <c r="B35" t="n">
         <v>0.01142692100256681</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.01076494622975588</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.009792962111532688</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.01056017354130745</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.006666788831353188</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001532348454929888</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.00372428516857326</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.008504483848810196</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01087468769401312</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01117232255637646</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.01022089645266533</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -724,6 +1794,36 @@
       <c r="B36" t="n">
         <v>0.01095853932201862</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.009742897935211658</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.009444685652852058</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.009977223351597786</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.006295522674918175</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.001312304404564202</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.003519679186865687</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.008097585290670395</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01055547874420881</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01076542865484953</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.009983179159462452</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -732,6 +1832,36 @@
       <c r="B37" t="n">
         <v>0.01067796442657709</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.009021880105137825</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.008985619992017746</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.009791012853384018</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.005735659971833229</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001164734829217196</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.002300574444234371</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.006964948959648609</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01027973648160696</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01049248781055212</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.009775313548743725</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -740,6 +1870,36 @@
       <c r="B38" t="n">
         <v>0.01048344094306231</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.008510870859026909</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.008110915310680866</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.009178905747830868</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.005491767544299364</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0009115382563322783</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001913972781039774</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.005938727408647537</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.009629174135625362</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.009802410379052162</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.008829922415316105</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -748,6 +1908,36 @@
       <c r="B39" t="n">
         <v>0.01010326109826565</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.008211537264287472</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.007775056641548872</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.009100472554564476</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.004677162505686283</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0006129856337793171</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.001508488901890814</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.005145538132637739</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.008485855534672737</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.009554795920848846</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.008551166392862797</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -756,6 +1946,36 @@
       <c r="B40" t="n">
         <v>0.009433181956410408</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.00725780613720417</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.007445192895829678</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.00811457447707653</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00461270660161972</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0005292841815389693</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.001113110221922398</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.00430375337600708</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.008143170736730099</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.009382315911352634</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.008153127506375313</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -764,6 +1984,36 @@
       <c r="B41" t="n">
         <v>0.008241328410804272</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.00685357628390193</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.006784769706428051</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.006850247271358967</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.003743016859516501</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0003436076221987605</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0009686762350611389</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.003871222957968712</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.007286067120730877</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.008344585075974464</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.00700062932446599</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -772,6 +2022,36 @@
       <c r="B42" t="n">
         <v>0.007850775495171547</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.006379415281116962</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.006045238580554724</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.006685435306280851</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.003304180921986699</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0002205764612881467</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0005490642506629229</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.003081319620832801</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.006480575539171696</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.007556617725640535</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.006527600344270468</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -779,6 +2059,36 @@
       </c>
       <c r="B43" t="n">
         <v>4.972525942010459e-18</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.126021363687919e-17</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.008814670130564e-17</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.22328443744177e-17</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.299847729956788e-17</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-3.994115372222934e-17</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-5.036117767706188e-17</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.625649555708853e-18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.794644737972711e-17</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7.313799289040352e-17</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.719629415031184e-17</v>
       </c>
     </row>
   </sheetData>

--- a/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
+++ b/tables/monthly_tables/nondetrended_covar/explained_var_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,215 +439,1656 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.1093680188059807</v>
       </c>
+      <c r="B2" t="n">
+        <v>0.09274386614561081</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.117696613073349</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1147505342960358</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1355419605970383</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.198231041431427</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2297586649656296</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1531559973955154</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.09801967442035675</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1574626863002777</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09306417405605316</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1140516474843025</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.07749371975660324</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.07743401080369949</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06877364963293076</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08067106455564499</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06899027526378632</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07616633176803589</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1234550476074219</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.07356687635183334</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.06852183490991592</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05621287226676941</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0683695450425148</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.07097554206848145</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.06218824908137321</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.05229384079575539</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06729238480329514</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06434258818626404</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05062343180179596</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06175826489925385</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.07915123552083969</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0670073926448822</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06133376806974411</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04852304607629776</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06006099283695221</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05333355069160461</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>0.05281843245029449</v>
       </c>
+      <c r="B5" t="n">
+        <v>0.04950251057744026</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05351328477263451</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05439808964729309</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04904606938362122</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05416468158364296</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.06967274844646454</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.06387048214673996</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05015856400132179</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.04408428072929382</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05421240255236626</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.04991744458675385</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.04702460765838623</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.0419447124004364</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04929415509104729</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04662769287824631</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.04533115029335022</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04257034882903099</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.06235538795590401</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.06010306254029274</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04965679720044136</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.04037827625870705</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.04628706350922585</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04785268008708954</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0.03959570452570915</v>
       </c>
+      <c r="B7" t="n">
+        <v>0.03673277422785759</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04189349710941315</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04253917187452316</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03969820216298103</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0388290137052536</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05856871232390404</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.05050433427095413</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0449686273932457</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03655165061354637</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04036521911621094</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.042680773884058</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0.03446648269891739</v>
       </c>
+      <c r="B8" t="n">
+        <v>0.03609712421894073</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04006700962781906</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03838459402322769</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03676043450832367</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03803860768675804</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03578697517514229</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04623236507177353</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03987497091293335</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.03519820049405098</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.03659946098923683</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.04139972105622292</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0.03123152256011963</v>
       </c>
+      <c r="B9" t="n">
+        <v>0.03414048999547958</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03738147392868996</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03315179422497749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03385865688323975</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03455705568194389</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02877422980964184</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0416281558573246</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03612862899899483</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03106196783483028</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.03565936908125877</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03796902298927307</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.03045325540006161</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.03217586502432823</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0337996631860733</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.03140239417552948</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03363600000739098</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03216956183314323</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.02785801514983177</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.04037057980895042</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.03436810523271561</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.02951305918395519</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03348608687520027</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.03178960829973221</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>0.02852308750152588</v>
       </c>
+      <c r="B11" t="n">
+        <v>0.03107269108295441</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02924484945833683</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03067612834274769</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03222093358635902</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.02935073524713516</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02539283409714699</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03544637560844421</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.03336072340607643</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.02829466015100479</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.03256680443882942</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03040699474513531</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>0.02807699516415596</v>
       </c>
+      <c r="B12" t="n">
+        <v>0.02922134846448898</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02842313796281815</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.02867592126131058</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02961232513189316</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02715164795517921</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02289757877588272</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.03356698527932167</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.03176772221922874</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.02704126201570034</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.03029556572437286</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.02873291075229645</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.02702027186751366</v>
       </c>
+      <c r="B13" t="n">
+        <v>0.02780522778630257</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02500544860959053</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02766196615993977</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02873736806213856</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02511109225451946</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02184286899864674</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03063421696424484</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.03054765798151493</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.02633400075137615</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.02844447828829288</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.02710217051208019</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0.02491737902164459</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.02683926746249199</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02337374724447727</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02493531815707684</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02535893395543098</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0226706899702549</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02146085351705551</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02881429903209209</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.02867836877703667</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.02497756294906139</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.02572961524128914</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.02580254897475243</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>0.02320364490151405</v>
       </c>
+      <c r="B15" t="n">
+        <v>0.02494245581328869</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02189086936414242</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02439107745885849</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.02279150299727917</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02253715880215168</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.02052129991352558</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02553158067166805</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0279552023857832</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02401316165924072</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.02428794652223587</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.02500148117542267</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.02190515212714672</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.02391288802027702</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.02106943167746067</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02254328317940235</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.02250942774116993</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02074809744954109</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01955326274037361</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.02184589393436909</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.02610619552433491</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02301144599914551</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.02337499894201756</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0223133247345686</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.02124162018299103</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.02319941483438015</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02081485651433468</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02147139236330986</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02183237671852112</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01988231018185616</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01684893108904362</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02093236893415451</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.02508015558123589</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02246208302676678</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.02259283512830734</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.02184979617595673</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.02036030404269695</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.0227432232350111</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02015852555632591</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02110410295426846</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02021206542849541</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01846012659370899</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01596915535628796</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0201007816940546</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0227826926857233</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02163539826869965</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.02051719836890697</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.02118591032922268</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.02018691785633564</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.02103416062891483</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01977603323757648</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01932637393474579</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0196241233497858</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01783558167517185</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01298952847719193</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01823626831173897</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02228694595396519</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02075069956481457</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02035099826753139</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.01980512589216232</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.01973873563110828</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.02032262086868286</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01846689358353615</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01848668232560158</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01887455396354198</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01653555408120155</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01155384723097086</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01792440563440323</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.02138125337660313</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.02038607001304626</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.01885040290653706</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.01910353265702724</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.01876218616962433</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.02018962427973747</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01784691773355007</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01821049302816391</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01796766184270382</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01600257307291031</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01108483504503965</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01682190783321857</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02013590559363365</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01943310350179672</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01864826492965221</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01835615560412407</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.01819640211760998</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.01846086606383324</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01743703708052635</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01663231290876865</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.016812888905406</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01575429923832417</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01045507844537497</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01583814434707165</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01946773193776608</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.01893092319369316</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0175385344773531</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01807487569749355</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>0.01778173446655273</v>
       </c>
+      <c r="B23" t="n">
+        <v>0.01779202371835709</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01670893281698227</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01633746363222599</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01661964878439903</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01452508009970188</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.009701820090413094</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01500230841338634</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01885665208101273</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01752587594091892</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.01725584827363491</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01632418297231197</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>0.01697730273008347</v>
       </c>
+      <c r="B24" t="n">
+        <v>0.01717290468513966</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0160038098692894</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01566179841756821</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01555501390248537</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01309275347739458</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.008797693997621536</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01332011260092258</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01720346324145794</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01685035787522793</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01625458896160126</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.01605537161231041</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.01608412526547909</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.01652219332754612</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01489696279168129</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01486706640571356</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01497976388782263</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0129198282957077</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.007884571328759193</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01192096993327141</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01693747006356716</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.01672881469130516</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01567908748984337</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01557675562798977</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.01550963707268238</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.01566002517938614</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01436190027743578</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01406300906091928</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01440583169460297</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01231405232101679</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.007467464543879032</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01152944378554821</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01491872500628233</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.01548146829009056</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0152316689491272</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.01515600178390741</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.0149554330855608</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.01548685599118471</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01367706526070833</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01379212643951178</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01399984303861856</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0117089943960309</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.007290530018508434</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.009703228250145912</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01418040785938501</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01519561186432838</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.01493680942803621</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.014850745908916</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>0.01444342359900475</v>
       </c>
+      <c r="B28" t="n">
+        <v>0.01517082937061787</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01327989809215069</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01313493307679892</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0132850157096982</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01118162367492914</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.006380783393979073</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.00740034831687808</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01393056008964777</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01492695976048708</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.01443468313664198</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01374811492860317</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>0.0137763200327754</v>
       </c>
+      <c r="B29" t="n">
+        <v>0.01474781520664692</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01284684985876083</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01219681557267904</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01283936575055122</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01095981523394585</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.005028935614973307</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.006695519667118788</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01287753041833639</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01409176364541054</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01434721890836954</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01355032157152891</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>0.01331396028399467</v>
       </c>
+      <c r="B30" t="n">
+        <v>0.01383950188755989</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01255478523671627</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01181857008486986</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01244290266185999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.009948692284524441</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.004854968748986721</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.006448370404541492</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01220494695007801</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0134003022685647</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01328580174595118</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01279322989284992</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>0.01270310487598181</v>
       </c>
+      <c r="B31" t="n">
+        <v>0.01339646615087986</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01184686738997698</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01153106521815062</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01207163464277983</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.009605774655938148</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.002992708003148437</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.005884209182113409</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01096224598586559</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01260247081518173</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01308641210198402</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01192657742649317</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.01257488690316677</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.01315639819949865</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01153274159878492</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01088565215468407</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01132851094007492</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.00909818708896637</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.002607493428513408</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.005220022518187761</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01032471749931574</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0121587784960866</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01282530464231968</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.01169577892869711</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.01178669091314077</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.01280652731657028</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01128531713038683</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.01061777956783772</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01121367886662483</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.008310729637742043</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.002391478745266795</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.004858801607042551</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.009802629239857197</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01183720864355564</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01255962438881397</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01101966481655836</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>0.01131160091608763</v>
       </c>
+      <c r="B34" t="n">
+        <v>0.01226407196372747</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01104246638715267</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01032621413469315</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01096050720661879</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.007282881997525692</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.002023163018748164</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.00428632739931345</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.00931154377758503</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01120924483984709</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01173003856092691</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.01055661030113697</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.01090616546571255</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.01142692100256681</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01076494622975588</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.009792962111532688</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.01056017354130745</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.006666788831353188</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001532348454929888</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.00372428516857326</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.008504483848810196</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01087468769401312</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01117232255637646</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.01022089645266533</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.01021838467568159</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.01095853932201862</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.009742897935211658</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.009444685652852058</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.009977223351597786</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.006295522674918175</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.001312304404564202</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.003519679186865687</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.008097585290670395</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01055547874420881</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.01076542865484953</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.009983179159462452</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.0100672785192728</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.01067796442657709</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.009021880105137825</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.008985619992017746</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.009791012853384018</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.005735659971833229</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001164734829217196</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.002300574444234371</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.006964948959648609</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01027973648160696</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01049248781055212</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.009775313548743725</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.009212486445903778</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.01048344094306231</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.008510870859026909</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.008110915310680866</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.009178905747830868</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.005491767544299364</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0009115382563322783</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001913972781039774</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.005938727408647537</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.009629174135625362</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.009802410379052162</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.008829922415316105</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.00871895719319582</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.01010326109826565</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.008211537264287472</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.007775056641548872</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.009100472554564476</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.004677162505686283</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0006129856337793171</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.001508488901890814</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.005145538132637739</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.008485855534672737</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.009554795920848846</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.008551166392862797</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.008323291316628456</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.009433181956410408</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.00725780613720417</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.007445192895829678</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.00811457447707653</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00461270660161972</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0005292841815389693</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.001113110221922398</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.00430375337600708</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.008143170736730099</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.009382315911352634</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.008153127506375313</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.007693667430430651</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.008241328410804272</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.00685357628390193</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.006784769706428051</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.006850247271358967</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.003743016859516501</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0003436076221987605</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0009686762350611389</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.003871222957968712</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.007286067120730877</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.008344585075974464</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.00700062932446599</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.006868749391287565</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.007850775495171547</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006379415281116962</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.006045238580554724</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.006685435306280851</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.003304180921986699</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0002205764612881467</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0005490642506629229</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.003081319620832801</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.006480575539171696</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.007556617725640535</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.006527600344270468</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>6.274947045483884e-18</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.972525942010459e-18</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.126021363687919e-17</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.008814670130564e-17</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.22328443744177e-17</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.299847729956788e-17</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-3.994115372222934e-17</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-5.036117767706188e-17</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.625649555708853e-18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.794644737972711e-17</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7.313799289040352e-17</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.719629415031184e-17</v>
       </c>
     </row>
   </sheetData>
